--- a/data.xlsx
+++ b/data.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Károlyi Krisztián\Desktop\SAPI_3-1\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D520B39B-1E2D-44D5-9296-AD561092A32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071B670C-865B-4A4B-A31E-A040A80CD1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forras" sheetId="2" r:id="rId1"/>
-    <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="all" sheetId="3" r:id="rId2"/>
+    <sheet name="data" sheetId="4" r:id="rId3"/>
+    <sheet name="valami" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="891">
   <si>
     <t>Rezultatele cautarii - Rata somajului inregistrat la sfarsitul lunii, pe sexe, macroregiuni, regiuni de dezvoltare si judete</t>
   </si>
@@ -2777,6 +2768,18 @@
   </si>
   <si>
     <t>2023 július</t>
+  </si>
+  <si>
+    <t>teszt időszak</t>
+  </si>
+  <si>
+    <t>Kovászna</t>
+  </si>
+  <si>
+    <t>Hargita</t>
+  </si>
+  <si>
+    <t>Maros</t>
   </si>
 </sst>
 </file>
@@ -2936,7 +2939,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3119,6 +3122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3388,7 +3397,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3405,6 +3414,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4164,782 +4180,782 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:381" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13"/>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="13"/>
-      <c r="FC1" s="13"/>
-      <c r="FD1" s="13"/>
-      <c r="FE1" s="13"/>
-      <c r="FF1" s="13"/>
-      <c r="FG1" s="13"/>
-      <c r="FH1" s="13"/>
-      <c r="FI1" s="13"/>
-      <c r="FJ1" s="13"/>
-      <c r="FK1" s="13"/>
-      <c r="FL1" s="13"/>
-      <c r="FM1" s="13"/>
-      <c r="FN1" s="13"/>
-      <c r="FO1" s="13"/>
-      <c r="FP1" s="13"/>
-      <c r="FQ1" s="13"/>
-      <c r="FR1" s="13"/>
-      <c r="FS1" s="13"/>
-      <c r="FT1" s="13"/>
-      <c r="FU1" s="13"/>
-      <c r="FV1" s="13"/>
-      <c r="FW1" s="13"/>
-      <c r="FX1" s="13"/>
-      <c r="FY1" s="13"/>
-      <c r="FZ1" s="13"/>
-      <c r="GA1" s="13"/>
-      <c r="GB1" s="13"/>
-      <c r="GC1" s="13"/>
-      <c r="GD1" s="13"/>
-      <c r="GE1" s="13"/>
-      <c r="GF1" s="13"/>
-      <c r="GG1" s="13"/>
-      <c r="GH1" s="13"/>
-      <c r="GI1" s="13"/>
-      <c r="GJ1" s="13"/>
-      <c r="GK1" s="13"/>
-      <c r="GL1" s="13"/>
-      <c r="GM1" s="13"/>
-      <c r="GN1" s="13"/>
-      <c r="GO1" s="13"/>
-      <c r="GP1" s="13"/>
-      <c r="GQ1" s="13"/>
-      <c r="GR1" s="13"/>
-      <c r="GS1" s="13"/>
-      <c r="GT1" s="13"/>
-      <c r="GU1" s="13"/>
-      <c r="GV1" s="13"/>
-      <c r="GW1" s="13"/>
-      <c r="GX1" s="13"/>
-      <c r="GY1" s="13"/>
-      <c r="GZ1" s="13"/>
-      <c r="HA1" s="13"/>
-      <c r="HB1" s="13"/>
-      <c r="HC1" s="13"/>
-      <c r="HD1" s="13"/>
-      <c r="HE1" s="13"/>
-      <c r="HF1" s="13"/>
-      <c r="HG1" s="13"/>
-      <c r="HH1" s="13"/>
-      <c r="HI1" s="13"/>
-      <c r="HJ1" s="13"/>
-      <c r="HK1" s="13"/>
-      <c r="HL1" s="13"/>
-      <c r="HM1" s="13"/>
-      <c r="HN1" s="13"/>
-      <c r="HO1" s="13"/>
-      <c r="HP1" s="13"/>
-      <c r="HQ1" s="13"/>
-      <c r="HR1" s="13"/>
-      <c r="HS1" s="13"/>
-      <c r="HT1" s="13"/>
-      <c r="HU1" s="13"/>
-      <c r="HV1" s="13"/>
-      <c r="HW1" s="13"/>
-      <c r="HX1" s="13"/>
-      <c r="HY1" s="13"/>
-      <c r="HZ1" s="13"/>
-      <c r="IA1" s="13"/>
-      <c r="IB1" s="13"/>
-      <c r="IC1" s="13"/>
-      <c r="ID1" s="13"/>
-      <c r="IE1" s="13"/>
-      <c r="IF1" s="13"/>
-      <c r="IG1" s="13"/>
-      <c r="IH1" s="13"/>
-      <c r="II1" s="13"/>
-      <c r="IJ1" s="13"/>
-      <c r="IK1" s="13"/>
-      <c r="IL1" s="13"/>
-      <c r="IM1" s="13"/>
-      <c r="IN1" s="13"/>
-      <c r="IO1" s="13"/>
-      <c r="IP1" s="13"/>
-      <c r="IQ1" s="13"/>
-      <c r="IR1" s="13"/>
-      <c r="IS1" s="13"/>
-      <c r="IT1" s="13"/>
-      <c r="IU1" s="13"/>
-      <c r="IV1" s="13"/>
-      <c r="IW1" s="13"/>
-      <c r="IX1" s="13"/>
-      <c r="IY1" s="13"/>
-      <c r="IZ1" s="13"/>
-      <c r="JA1" s="13"/>
-      <c r="JB1" s="13"/>
-      <c r="JC1" s="13"/>
-      <c r="JD1" s="13"/>
-      <c r="JE1" s="13"/>
-      <c r="JF1" s="13"/>
-      <c r="JG1" s="13"/>
-      <c r="JH1" s="13"/>
-      <c r="JI1" s="13"/>
-      <c r="JJ1" s="13"/>
-      <c r="JK1" s="13"/>
-      <c r="JL1" s="13"/>
-      <c r="JM1" s="13"/>
-      <c r="JN1" s="13"/>
-      <c r="JO1" s="13"/>
-      <c r="JP1" s="13"/>
-      <c r="JQ1" s="13"/>
-      <c r="JR1" s="13"/>
-      <c r="JS1" s="13"/>
-      <c r="JT1" s="13"/>
-      <c r="JU1" s="13"/>
-      <c r="JV1" s="13"/>
-      <c r="JW1" s="13"/>
-      <c r="JX1" s="13"/>
-      <c r="JY1" s="13"/>
-      <c r="JZ1" s="13"/>
-      <c r="KA1" s="13"/>
-      <c r="KB1" s="13"/>
-      <c r="KC1" s="13"/>
-      <c r="KD1" s="13"/>
-      <c r="KE1" s="13"/>
-      <c r="KF1" s="13"/>
-      <c r="KG1" s="13"/>
-      <c r="KH1" s="13"/>
-      <c r="KI1" s="13"/>
-      <c r="KJ1" s="13"/>
-      <c r="KK1" s="13"/>
-      <c r="KL1" s="13"/>
-      <c r="KM1" s="13"/>
-      <c r="KN1" s="13"/>
-      <c r="KO1" s="13"/>
-      <c r="KP1" s="13"/>
-      <c r="KQ1" s="13"/>
-      <c r="KR1" s="13"/>
-      <c r="KS1" s="13"/>
-      <c r="KT1" s="13"/>
-      <c r="KU1" s="13"/>
-      <c r="KV1" s="13"/>
-      <c r="KW1" s="13"/>
-      <c r="KX1" s="13"/>
-      <c r="KY1" s="13"/>
-      <c r="KZ1" s="13"/>
-      <c r="LA1" s="13"/>
-      <c r="LB1" s="13"/>
-      <c r="LC1" s="13"/>
-      <c r="LD1" s="13"/>
-      <c r="LE1" s="13"/>
-      <c r="LF1" s="13"/>
-      <c r="LG1" s="13"/>
-      <c r="LH1" s="13"/>
-      <c r="LI1" s="13"/>
-      <c r="LJ1" s="13"/>
-      <c r="LK1" s="13"/>
-      <c r="LL1" s="13"/>
-      <c r="LM1" s="13"/>
-      <c r="LN1" s="13"/>
-      <c r="LO1" s="13"/>
-      <c r="LP1" s="13"/>
-      <c r="LQ1" s="13"/>
-      <c r="LR1" s="13"/>
-      <c r="LS1" s="13"/>
-      <c r="LT1" s="13"/>
-      <c r="LU1" s="13"/>
-      <c r="LV1" s="13"/>
-      <c r="LW1" s="13"/>
-      <c r="LX1" s="13"/>
-      <c r="LY1" s="13"/>
-      <c r="LZ1" s="13"/>
-      <c r="MA1" s="13"/>
-      <c r="MB1" s="13"/>
-      <c r="MC1" s="13"/>
-      <c r="MD1" s="13"/>
-      <c r="ME1" s="13"/>
-      <c r="MF1" s="13"/>
-      <c r="MG1" s="13"/>
-      <c r="MH1" s="13"/>
-      <c r="MI1" s="13"/>
-      <c r="MJ1" s="13"/>
-      <c r="MK1" s="13"/>
-      <c r="ML1" s="13"/>
-      <c r="MM1" s="13"/>
-      <c r="MN1" s="13"/>
-      <c r="MO1" s="13"/>
-      <c r="MP1" s="13"/>
-      <c r="MQ1" s="13"/>
-      <c r="MR1" s="13"/>
-      <c r="MS1" s="13"/>
-      <c r="MT1" s="13"/>
-      <c r="MU1" s="13"/>
-      <c r="MV1" s="13"/>
-      <c r="MW1" s="13"/>
-      <c r="MX1" s="13"/>
-      <c r="MY1" s="13"/>
-      <c r="MZ1" s="13"/>
-      <c r="NA1" s="13"/>
-      <c r="NB1" s="13"/>
-      <c r="NC1" s="13"/>
-      <c r="ND1" s="13"/>
-      <c r="NE1" s="13"/>
-      <c r="NF1" s="13"/>
-      <c r="NG1" s="13"/>
-      <c r="NH1" s="13"/>
-      <c r="NI1" s="13"/>
-      <c r="NJ1" s="13"/>
-      <c r="NK1" s="13"/>
-      <c r="NL1" s="13"/>
-      <c r="NM1" s="13"/>
-      <c r="NN1" s="13"/>
-      <c r="NO1" s="13"/>
-      <c r="NP1" s="13"/>
-      <c r="NQ1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+      <c r="DR1" s="20"/>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="20"/>
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="20"/>
+      <c r="EP1" s="20"/>
+      <c r="EQ1" s="20"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
+      <c r="FL1" s="20"/>
+      <c r="FM1" s="20"/>
+      <c r="FN1" s="20"/>
+      <c r="FO1" s="20"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="20"/>
+      <c r="FR1" s="20"/>
+      <c r="FS1" s="20"/>
+      <c r="FT1" s="20"/>
+      <c r="FU1" s="20"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="20"/>
+      <c r="FX1" s="20"/>
+      <c r="FY1" s="20"/>
+      <c r="FZ1" s="20"/>
+      <c r="GA1" s="20"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="20"/>
+      <c r="GD1" s="20"/>
+      <c r="GE1" s="20"/>
+      <c r="GF1" s="20"/>
+      <c r="GG1" s="20"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="20"/>
+      <c r="GJ1" s="20"/>
+      <c r="GK1" s="20"/>
+      <c r="GL1" s="20"/>
+      <c r="GM1" s="20"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="20"/>
+      <c r="GP1" s="20"/>
+      <c r="GQ1" s="20"/>
+      <c r="GR1" s="20"/>
+      <c r="GS1" s="20"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="20"/>
+      <c r="GV1" s="20"/>
+      <c r="GW1" s="20"/>
+      <c r="GX1" s="20"/>
+      <c r="GY1" s="20"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="20"/>
+      <c r="HB1" s="20"/>
+      <c r="HC1" s="20"/>
+      <c r="HD1" s="20"/>
+      <c r="HE1" s="20"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="20"/>
+      <c r="HH1" s="20"/>
+      <c r="HI1" s="20"/>
+      <c r="HJ1" s="20"/>
+      <c r="HK1" s="20"/>
+      <c r="HL1" s="20"/>
+      <c r="HM1" s="20"/>
+      <c r="HN1" s="20"/>
+      <c r="HO1" s="20"/>
+      <c r="HP1" s="20"/>
+      <c r="HQ1" s="20"/>
+      <c r="HR1" s="20"/>
+      <c r="HS1" s="20"/>
+      <c r="HT1" s="20"/>
+      <c r="HU1" s="20"/>
+      <c r="HV1" s="20"/>
+      <c r="HW1" s="20"/>
+      <c r="HX1" s="20"/>
+      <c r="HY1" s="20"/>
+      <c r="HZ1" s="20"/>
+      <c r="IA1" s="20"/>
+      <c r="IB1" s="20"/>
+      <c r="IC1" s="20"/>
+      <c r="ID1" s="20"/>
+      <c r="IE1" s="20"/>
+      <c r="IF1" s="20"/>
+      <c r="IG1" s="20"/>
+      <c r="IH1" s="20"/>
+      <c r="II1" s="20"/>
+      <c r="IJ1" s="20"/>
+      <c r="IK1" s="20"/>
+      <c r="IL1" s="20"/>
+      <c r="IM1" s="20"/>
+      <c r="IN1" s="20"/>
+      <c r="IO1" s="20"/>
+      <c r="IP1" s="20"/>
+      <c r="IQ1" s="20"/>
+      <c r="IR1" s="20"/>
+      <c r="IS1" s="20"/>
+      <c r="IT1" s="20"/>
+      <c r="IU1" s="20"/>
+      <c r="IV1" s="20"/>
+      <c r="IW1" s="20"/>
+      <c r="IX1" s="20"/>
+      <c r="IY1" s="20"/>
+      <c r="IZ1" s="20"/>
+      <c r="JA1" s="20"/>
+      <c r="JB1" s="20"/>
+      <c r="JC1" s="20"/>
+      <c r="JD1" s="20"/>
+      <c r="JE1" s="20"/>
+      <c r="JF1" s="20"/>
+      <c r="JG1" s="20"/>
+      <c r="JH1" s="20"/>
+      <c r="JI1" s="20"/>
+      <c r="JJ1" s="20"/>
+      <c r="JK1" s="20"/>
+      <c r="JL1" s="20"/>
+      <c r="JM1" s="20"/>
+      <c r="JN1" s="20"/>
+      <c r="JO1" s="20"/>
+      <c r="JP1" s="20"/>
+      <c r="JQ1" s="20"/>
+      <c r="JR1" s="20"/>
+      <c r="JS1" s="20"/>
+      <c r="JT1" s="20"/>
+      <c r="JU1" s="20"/>
+      <c r="JV1" s="20"/>
+      <c r="JW1" s="20"/>
+      <c r="JX1" s="20"/>
+      <c r="JY1" s="20"/>
+      <c r="JZ1" s="20"/>
+      <c r="KA1" s="20"/>
+      <c r="KB1" s="20"/>
+      <c r="KC1" s="20"/>
+      <c r="KD1" s="20"/>
+      <c r="KE1" s="20"/>
+      <c r="KF1" s="20"/>
+      <c r="KG1" s="20"/>
+      <c r="KH1" s="20"/>
+      <c r="KI1" s="20"/>
+      <c r="KJ1" s="20"/>
+      <c r="KK1" s="20"/>
+      <c r="KL1" s="20"/>
+      <c r="KM1" s="20"/>
+      <c r="KN1" s="20"/>
+      <c r="KO1" s="20"/>
+      <c r="KP1" s="20"/>
+      <c r="KQ1" s="20"/>
+      <c r="KR1" s="20"/>
+      <c r="KS1" s="20"/>
+      <c r="KT1" s="20"/>
+      <c r="KU1" s="20"/>
+      <c r="KV1" s="20"/>
+      <c r="KW1" s="20"/>
+      <c r="KX1" s="20"/>
+      <c r="KY1" s="20"/>
+      <c r="KZ1" s="20"/>
+      <c r="LA1" s="20"/>
+      <c r="LB1" s="20"/>
+      <c r="LC1" s="20"/>
+      <c r="LD1" s="20"/>
+      <c r="LE1" s="20"/>
+      <c r="LF1" s="20"/>
+      <c r="LG1" s="20"/>
+      <c r="LH1" s="20"/>
+      <c r="LI1" s="20"/>
+      <c r="LJ1" s="20"/>
+      <c r="LK1" s="20"/>
+      <c r="LL1" s="20"/>
+      <c r="LM1" s="20"/>
+      <c r="LN1" s="20"/>
+      <c r="LO1" s="20"/>
+      <c r="LP1" s="20"/>
+      <c r="LQ1" s="20"/>
+      <c r="LR1" s="20"/>
+      <c r="LS1" s="20"/>
+      <c r="LT1" s="20"/>
+      <c r="LU1" s="20"/>
+      <c r="LV1" s="20"/>
+      <c r="LW1" s="20"/>
+      <c r="LX1" s="20"/>
+      <c r="LY1" s="20"/>
+      <c r="LZ1" s="20"/>
+      <c r="MA1" s="20"/>
+      <c r="MB1" s="20"/>
+      <c r="MC1" s="20"/>
+      <c r="MD1" s="20"/>
+      <c r="ME1" s="20"/>
+      <c r="MF1" s="20"/>
+      <c r="MG1" s="20"/>
+      <c r="MH1" s="20"/>
+      <c r="MI1" s="20"/>
+      <c r="MJ1" s="20"/>
+      <c r="MK1" s="20"/>
+      <c r="ML1" s="20"/>
+      <c r="MM1" s="20"/>
+      <c r="MN1" s="20"/>
+      <c r="MO1" s="20"/>
+      <c r="MP1" s="20"/>
+      <c r="MQ1" s="20"/>
+      <c r="MR1" s="20"/>
+      <c r="MS1" s="20"/>
+      <c r="MT1" s="20"/>
+      <c r="MU1" s="20"/>
+      <c r="MV1" s="20"/>
+      <c r="MW1" s="20"/>
+      <c r="MX1" s="20"/>
+      <c r="MY1" s="20"/>
+      <c r="MZ1" s="20"/>
+      <c r="NA1" s="20"/>
+      <c r="NB1" s="20"/>
+      <c r="NC1" s="20"/>
+      <c r="ND1" s="20"/>
+      <c r="NE1" s="20"/>
+      <c r="NF1" s="20"/>
+      <c r="NG1" s="20"/>
+      <c r="NH1" s="20"/>
+      <c r="NI1" s="20"/>
+      <c r="NJ1" s="20"/>
+      <c r="NK1" s="20"/>
+      <c r="NL1" s="20"/>
+      <c r="NM1" s="20"/>
+      <c r="NN1" s="20"/>
+      <c r="NO1" s="20"/>
+      <c r="NP1" s="20"/>
+      <c r="NQ1" s="20"/>
     </row>
     <row r="2" spans="1:381" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14"/>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14"/>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14"/>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14"/>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14"/>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14"/>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14"/>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="14"/>
-      <c r="FQ2" s="14"/>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="14"/>
-      <c r="FT2" s="14"/>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="14"/>
-      <c r="FW2" s="14"/>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="14"/>
-      <c r="FZ2" s="14"/>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="14"/>
-      <c r="GC2" s="14"/>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="14"/>
-      <c r="GF2" s="14"/>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="14"/>
-      <c r="GI2" s="14"/>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="14"/>
-      <c r="GL2" s="14"/>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="14"/>
-      <c r="GO2" s="14"/>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="14"/>
-      <c r="GR2" s="14"/>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="14"/>
-      <c r="GU2" s="14"/>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="14"/>
-      <c r="GX2" s="14"/>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="14"/>
-      <c r="HA2" s="14"/>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="14"/>
-      <c r="HD2" s="14"/>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="14"/>
-      <c r="HG2" s="14"/>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="14"/>
-      <c r="HJ2" s="14"/>
-      <c r="HK2" s="14"/>
-      <c r="HL2" s="14"/>
-      <c r="HM2" s="14"/>
-      <c r="HN2" s="14"/>
-      <c r="HO2" s="14"/>
-      <c r="HP2" s="14"/>
-      <c r="HQ2" s="14"/>
-      <c r="HR2" s="14"/>
-      <c r="HS2" s="14"/>
-      <c r="HT2" s="14"/>
-      <c r="HU2" s="14"/>
-      <c r="HV2" s="14"/>
-      <c r="HW2" s="14"/>
-      <c r="HX2" s="14"/>
-      <c r="HY2" s="14"/>
-      <c r="HZ2" s="14"/>
-      <c r="IA2" s="14"/>
-      <c r="IB2" s="14"/>
-      <c r="IC2" s="14"/>
-      <c r="ID2" s="14"/>
-      <c r="IE2" s="14"/>
-      <c r="IF2" s="14"/>
-      <c r="IG2" s="14"/>
-      <c r="IH2" s="14"/>
-      <c r="II2" s="14"/>
-      <c r="IJ2" s="14"/>
-      <c r="IK2" s="14"/>
-      <c r="IL2" s="14"/>
-      <c r="IM2" s="14"/>
-      <c r="IN2" s="14"/>
-      <c r="IO2" s="14"/>
-      <c r="IP2" s="14"/>
-      <c r="IQ2" s="14"/>
-      <c r="IR2" s="14"/>
-      <c r="IS2" s="14"/>
-      <c r="IT2" s="14"/>
-      <c r="IU2" s="14"/>
-      <c r="IV2" s="14"/>
-      <c r="IW2" s="14"/>
-      <c r="IX2" s="14"/>
-      <c r="IY2" s="14"/>
-      <c r="IZ2" s="14"/>
-      <c r="JA2" s="14"/>
-      <c r="JB2" s="14"/>
-      <c r="JC2" s="14"/>
-      <c r="JD2" s="14"/>
-      <c r="JE2" s="14"/>
-      <c r="JF2" s="14"/>
-      <c r="JG2" s="14"/>
-      <c r="JH2" s="14"/>
-      <c r="JI2" s="14"/>
-      <c r="JJ2" s="14"/>
-      <c r="JK2" s="14"/>
-      <c r="JL2" s="14"/>
-      <c r="JM2" s="14"/>
-      <c r="JN2" s="14"/>
-      <c r="JO2" s="14"/>
-      <c r="JP2" s="14"/>
-      <c r="JQ2" s="14"/>
-      <c r="JR2" s="14"/>
-      <c r="JS2" s="14"/>
-      <c r="JT2" s="14"/>
-      <c r="JU2" s="14"/>
-      <c r="JV2" s="14"/>
-      <c r="JW2" s="14"/>
-      <c r="JX2" s="14"/>
-      <c r="JY2" s="14"/>
-      <c r="JZ2" s="14"/>
-      <c r="KA2" s="14"/>
-      <c r="KB2" s="14"/>
-      <c r="KC2" s="14"/>
-      <c r="KD2" s="14"/>
-      <c r="KE2" s="14"/>
-      <c r="KF2" s="14"/>
-      <c r="KG2" s="14"/>
-      <c r="KH2" s="14"/>
-      <c r="KI2" s="14"/>
-      <c r="KJ2" s="14"/>
-      <c r="KK2" s="14"/>
-      <c r="KL2" s="14"/>
-      <c r="KM2" s="14"/>
-      <c r="KN2" s="14"/>
-      <c r="KO2" s="14"/>
-      <c r="KP2" s="14"/>
-      <c r="KQ2" s="14"/>
-      <c r="KR2" s="14"/>
-      <c r="KS2" s="14"/>
-      <c r="KT2" s="14"/>
-      <c r="KU2" s="14"/>
-      <c r="KV2" s="14"/>
-      <c r="KW2" s="14"/>
-      <c r="KX2" s="14"/>
-      <c r="KY2" s="14"/>
-      <c r="KZ2" s="14"/>
-      <c r="LA2" s="14"/>
-      <c r="LB2" s="14"/>
-      <c r="LC2" s="14"/>
-      <c r="LD2" s="14"/>
-      <c r="LE2" s="14"/>
-      <c r="LF2" s="14"/>
-      <c r="LG2" s="14"/>
-      <c r="LH2" s="14"/>
-      <c r="LI2" s="14"/>
-      <c r="LJ2" s="14"/>
-      <c r="LK2" s="14"/>
-      <c r="LL2" s="14"/>
-      <c r="LM2" s="14"/>
-      <c r="LN2" s="14"/>
-      <c r="LO2" s="14"/>
-      <c r="LP2" s="14"/>
-      <c r="LQ2" s="14"/>
-      <c r="LR2" s="14"/>
-      <c r="LS2" s="14"/>
-      <c r="LT2" s="14"/>
-      <c r="LU2" s="14"/>
-      <c r="LV2" s="14"/>
-      <c r="LW2" s="14"/>
-      <c r="LX2" s="14"/>
-      <c r="LY2" s="14"/>
-      <c r="LZ2" s="14"/>
-      <c r="MA2" s="14"/>
-      <c r="MB2" s="14"/>
-      <c r="MC2" s="14"/>
-      <c r="MD2" s="14"/>
-      <c r="ME2" s="14"/>
-      <c r="MF2" s="14"/>
-      <c r="MG2" s="14"/>
-      <c r="MH2" s="14"/>
-      <c r="MI2" s="14"/>
-      <c r="MJ2" s="14"/>
-      <c r="MK2" s="14"/>
-      <c r="ML2" s="14"/>
-      <c r="MM2" s="14"/>
-      <c r="MN2" s="14"/>
-      <c r="MO2" s="14"/>
-      <c r="MP2" s="14"/>
-      <c r="MQ2" s="14"/>
-      <c r="MR2" s="14"/>
-      <c r="MS2" s="14"/>
-      <c r="MT2" s="14"/>
-      <c r="MU2" s="14"/>
-      <c r="MV2" s="14"/>
-      <c r="MW2" s="14"/>
-      <c r="MX2" s="14"/>
-      <c r="MY2" s="14"/>
-      <c r="MZ2" s="14"/>
-      <c r="NA2" s="14"/>
-      <c r="NB2" s="14"/>
-      <c r="NC2" s="14"/>
-      <c r="ND2" s="14"/>
-      <c r="NE2" s="14"/>
-      <c r="NF2" s="14"/>
-      <c r="NG2" s="14"/>
-      <c r="NH2" s="14"/>
-      <c r="NI2" s="14"/>
-      <c r="NJ2" s="14"/>
-      <c r="NK2" s="14"/>
-      <c r="NL2" s="14"/>
-      <c r="NM2" s="14"/>
-      <c r="NN2" s="14"/>
-      <c r="NO2" s="14"/>
-      <c r="NP2" s="14"/>
-      <c r="NQ2" s="14"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
+      <c r="CK2" s="21"/>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="21"/>
+      <c r="CP2" s="21"/>
+      <c r="CQ2" s="21"/>
+      <c r="CR2" s="21"/>
+      <c r="CS2" s="21"/>
+      <c r="CT2" s="21"/>
+      <c r="CU2" s="21"/>
+      <c r="CV2" s="21"/>
+      <c r="CW2" s="21"/>
+      <c r="CX2" s="21"/>
+      <c r="CY2" s="21"/>
+      <c r="CZ2" s="21"/>
+      <c r="DA2" s="21"/>
+      <c r="DB2" s="21"/>
+      <c r="DC2" s="21"/>
+      <c r="DD2" s="21"/>
+      <c r="DE2" s="21"/>
+      <c r="DF2" s="21"/>
+      <c r="DG2" s="21"/>
+      <c r="DH2" s="21"/>
+      <c r="DI2" s="21"/>
+      <c r="DJ2" s="21"/>
+      <c r="DK2" s="21"/>
+      <c r="DL2" s="21"/>
+      <c r="DM2" s="21"/>
+      <c r="DN2" s="21"/>
+      <c r="DO2" s="21"/>
+      <c r="DP2" s="21"/>
+      <c r="DQ2" s="21"/>
+      <c r="DR2" s="21"/>
+      <c r="DS2" s="21"/>
+      <c r="DT2" s="21"/>
+      <c r="DU2" s="21"/>
+      <c r="DV2" s="21"/>
+      <c r="DW2" s="21"/>
+      <c r="DX2" s="21"/>
+      <c r="DY2" s="21"/>
+      <c r="DZ2" s="21"/>
+      <c r="EA2" s="21"/>
+      <c r="EB2" s="21"/>
+      <c r="EC2" s="21"/>
+      <c r="ED2" s="21"/>
+      <c r="EE2" s="21"/>
+      <c r="EF2" s="21"/>
+      <c r="EG2" s="21"/>
+      <c r="EH2" s="21"/>
+      <c r="EI2" s="21"/>
+      <c r="EJ2" s="21"/>
+      <c r="EK2" s="21"/>
+      <c r="EL2" s="21"/>
+      <c r="EM2" s="21"/>
+      <c r="EN2" s="21"/>
+      <c r="EO2" s="21"/>
+      <c r="EP2" s="21"/>
+      <c r="EQ2" s="21"/>
+      <c r="ER2" s="21"/>
+      <c r="ES2" s="21"/>
+      <c r="ET2" s="21"/>
+      <c r="EU2" s="21"/>
+      <c r="EV2" s="21"/>
+      <c r="EW2" s="21"/>
+      <c r="EX2" s="21"/>
+      <c r="EY2" s="21"/>
+      <c r="EZ2" s="21"/>
+      <c r="FA2" s="21"/>
+      <c r="FB2" s="21"/>
+      <c r="FC2" s="21"/>
+      <c r="FD2" s="21"/>
+      <c r="FE2" s="21"/>
+      <c r="FF2" s="21"/>
+      <c r="FG2" s="21"/>
+      <c r="FH2" s="21"/>
+      <c r="FI2" s="21"/>
+      <c r="FJ2" s="21"/>
+      <c r="FK2" s="21"/>
+      <c r="FL2" s="21"/>
+      <c r="FM2" s="21"/>
+      <c r="FN2" s="21"/>
+      <c r="FO2" s="21"/>
+      <c r="FP2" s="21"/>
+      <c r="FQ2" s="21"/>
+      <c r="FR2" s="21"/>
+      <c r="FS2" s="21"/>
+      <c r="FT2" s="21"/>
+      <c r="FU2" s="21"/>
+      <c r="FV2" s="21"/>
+      <c r="FW2" s="21"/>
+      <c r="FX2" s="21"/>
+      <c r="FY2" s="21"/>
+      <c r="FZ2" s="21"/>
+      <c r="GA2" s="21"/>
+      <c r="GB2" s="21"/>
+      <c r="GC2" s="21"/>
+      <c r="GD2" s="21"/>
+      <c r="GE2" s="21"/>
+      <c r="GF2" s="21"/>
+      <c r="GG2" s="21"/>
+      <c r="GH2" s="21"/>
+      <c r="GI2" s="21"/>
+      <c r="GJ2" s="21"/>
+      <c r="GK2" s="21"/>
+      <c r="GL2" s="21"/>
+      <c r="GM2" s="21"/>
+      <c r="GN2" s="21"/>
+      <c r="GO2" s="21"/>
+      <c r="GP2" s="21"/>
+      <c r="GQ2" s="21"/>
+      <c r="GR2" s="21"/>
+      <c r="GS2" s="21"/>
+      <c r="GT2" s="21"/>
+      <c r="GU2" s="21"/>
+      <c r="GV2" s="21"/>
+      <c r="GW2" s="21"/>
+      <c r="GX2" s="21"/>
+      <c r="GY2" s="21"/>
+      <c r="GZ2" s="21"/>
+      <c r="HA2" s="21"/>
+      <c r="HB2" s="21"/>
+      <c r="HC2" s="21"/>
+      <c r="HD2" s="21"/>
+      <c r="HE2" s="21"/>
+      <c r="HF2" s="21"/>
+      <c r="HG2" s="21"/>
+      <c r="HH2" s="21"/>
+      <c r="HI2" s="21"/>
+      <c r="HJ2" s="21"/>
+      <c r="HK2" s="21"/>
+      <c r="HL2" s="21"/>
+      <c r="HM2" s="21"/>
+      <c r="HN2" s="21"/>
+      <c r="HO2" s="21"/>
+      <c r="HP2" s="21"/>
+      <c r="HQ2" s="21"/>
+      <c r="HR2" s="21"/>
+      <c r="HS2" s="21"/>
+      <c r="HT2" s="21"/>
+      <c r="HU2" s="21"/>
+      <c r="HV2" s="21"/>
+      <c r="HW2" s="21"/>
+      <c r="HX2" s="21"/>
+      <c r="HY2" s="21"/>
+      <c r="HZ2" s="21"/>
+      <c r="IA2" s="21"/>
+      <c r="IB2" s="21"/>
+      <c r="IC2" s="21"/>
+      <c r="ID2" s="21"/>
+      <c r="IE2" s="21"/>
+      <c r="IF2" s="21"/>
+      <c r="IG2" s="21"/>
+      <c r="IH2" s="21"/>
+      <c r="II2" s="21"/>
+      <c r="IJ2" s="21"/>
+      <c r="IK2" s="21"/>
+      <c r="IL2" s="21"/>
+      <c r="IM2" s="21"/>
+      <c r="IN2" s="21"/>
+      <c r="IO2" s="21"/>
+      <c r="IP2" s="21"/>
+      <c r="IQ2" s="21"/>
+      <c r="IR2" s="21"/>
+      <c r="IS2" s="21"/>
+      <c r="IT2" s="21"/>
+      <c r="IU2" s="21"/>
+      <c r="IV2" s="21"/>
+      <c r="IW2" s="21"/>
+      <c r="IX2" s="21"/>
+      <c r="IY2" s="21"/>
+      <c r="IZ2" s="21"/>
+      <c r="JA2" s="21"/>
+      <c r="JB2" s="21"/>
+      <c r="JC2" s="21"/>
+      <c r="JD2" s="21"/>
+      <c r="JE2" s="21"/>
+      <c r="JF2" s="21"/>
+      <c r="JG2" s="21"/>
+      <c r="JH2" s="21"/>
+      <c r="JI2" s="21"/>
+      <c r="JJ2" s="21"/>
+      <c r="JK2" s="21"/>
+      <c r="JL2" s="21"/>
+      <c r="JM2" s="21"/>
+      <c r="JN2" s="21"/>
+      <c r="JO2" s="21"/>
+      <c r="JP2" s="21"/>
+      <c r="JQ2" s="21"/>
+      <c r="JR2" s="21"/>
+      <c r="JS2" s="21"/>
+      <c r="JT2" s="21"/>
+      <c r="JU2" s="21"/>
+      <c r="JV2" s="21"/>
+      <c r="JW2" s="21"/>
+      <c r="JX2" s="21"/>
+      <c r="JY2" s="21"/>
+      <c r="JZ2" s="21"/>
+      <c r="KA2" s="21"/>
+      <c r="KB2" s="21"/>
+      <c r="KC2" s="21"/>
+      <c r="KD2" s="21"/>
+      <c r="KE2" s="21"/>
+      <c r="KF2" s="21"/>
+      <c r="KG2" s="21"/>
+      <c r="KH2" s="21"/>
+      <c r="KI2" s="21"/>
+      <c r="KJ2" s="21"/>
+      <c r="KK2" s="21"/>
+      <c r="KL2" s="21"/>
+      <c r="KM2" s="21"/>
+      <c r="KN2" s="21"/>
+      <c r="KO2" s="21"/>
+      <c r="KP2" s="21"/>
+      <c r="KQ2" s="21"/>
+      <c r="KR2" s="21"/>
+      <c r="KS2" s="21"/>
+      <c r="KT2" s="21"/>
+      <c r="KU2" s="21"/>
+      <c r="KV2" s="21"/>
+      <c r="KW2" s="21"/>
+      <c r="KX2" s="21"/>
+      <c r="KY2" s="21"/>
+      <c r="KZ2" s="21"/>
+      <c r="LA2" s="21"/>
+      <c r="LB2" s="21"/>
+      <c r="LC2" s="21"/>
+      <c r="LD2" s="21"/>
+      <c r="LE2" s="21"/>
+      <c r="LF2" s="21"/>
+      <c r="LG2" s="21"/>
+      <c r="LH2" s="21"/>
+      <c r="LI2" s="21"/>
+      <c r="LJ2" s="21"/>
+      <c r="LK2" s="21"/>
+      <c r="LL2" s="21"/>
+      <c r="LM2" s="21"/>
+      <c r="LN2" s="21"/>
+      <c r="LO2" s="21"/>
+      <c r="LP2" s="21"/>
+      <c r="LQ2" s="21"/>
+      <c r="LR2" s="21"/>
+      <c r="LS2" s="21"/>
+      <c r="LT2" s="21"/>
+      <c r="LU2" s="21"/>
+      <c r="LV2" s="21"/>
+      <c r="LW2" s="21"/>
+      <c r="LX2" s="21"/>
+      <c r="LY2" s="21"/>
+      <c r="LZ2" s="21"/>
+      <c r="MA2" s="21"/>
+      <c r="MB2" s="21"/>
+      <c r="MC2" s="21"/>
+      <c r="MD2" s="21"/>
+      <c r="ME2" s="21"/>
+      <c r="MF2" s="21"/>
+      <c r="MG2" s="21"/>
+      <c r="MH2" s="21"/>
+      <c r="MI2" s="21"/>
+      <c r="MJ2" s="21"/>
+      <c r="MK2" s="21"/>
+      <c r="ML2" s="21"/>
+      <c r="MM2" s="21"/>
+      <c r="MN2" s="21"/>
+      <c r="MO2" s="21"/>
+      <c r="MP2" s="21"/>
+      <c r="MQ2" s="21"/>
+      <c r="MR2" s="21"/>
+      <c r="MS2" s="21"/>
+      <c r="MT2" s="21"/>
+      <c r="MU2" s="21"/>
+      <c r="MV2" s="21"/>
+      <c r="MW2" s="21"/>
+      <c r="MX2" s="21"/>
+      <c r="MY2" s="21"/>
+      <c r="MZ2" s="21"/>
+      <c r="NA2" s="21"/>
+      <c r="NB2" s="21"/>
+      <c r="NC2" s="21"/>
+      <c r="ND2" s="21"/>
+      <c r="NE2" s="21"/>
+      <c r="NF2" s="21"/>
+      <c r="NG2" s="21"/>
+      <c r="NH2" s="21"/>
+      <c r="NI2" s="21"/>
+      <c r="NJ2" s="21"/>
+      <c r="NK2" s="21"/>
+      <c r="NL2" s="21"/>
+      <c r="NM2" s="21"/>
+      <c r="NN2" s="21"/>
+      <c r="NO2" s="21"/>
+      <c r="NP2" s="21"/>
+      <c r="NQ2" s="21"/>
     </row>
     <row r="3" spans="1:381" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6079,393 +6095,393 @@
       </c>
     </row>
     <row r="4" spans="1:381" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="14"/>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="14"/>
-      <c r="BM4" s="14"/>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="14"/>
-      <c r="BP4" s="14"/>
-      <c r="BQ4" s="14"/>
-      <c r="BR4" s="14"/>
-      <c r="BS4" s="14"/>
-      <c r="BT4" s="14"/>
-      <c r="BU4" s="14"/>
-      <c r="BV4" s="14"/>
-      <c r="BW4" s="14"/>
-      <c r="BX4" s="14"/>
-      <c r="BY4" s="14"/>
-      <c r="BZ4" s="14"/>
-      <c r="CA4" s="14"/>
-      <c r="CB4" s="14"/>
-      <c r="CC4" s="14"/>
-      <c r="CD4" s="14"/>
-      <c r="CE4" s="14"/>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14"/>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14"/>
-      <c r="CL4" s="14"/>
-      <c r="CM4" s="14"/>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14"/>
-      <c r="CT4" s="14"/>
-      <c r="CU4" s="14"/>
-      <c r="CV4" s="14"/>
-      <c r="CW4" s="14"/>
-      <c r="CX4" s="14"/>
-      <c r="CY4" s="14"/>
-      <c r="CZ4" s="14"/>
-      <c r="DA4" s="14"/>
-      <c r="DB4" s="14"/>
-      <c r="DC4" s="14"/>
-      <c r="DD4" s="14"/>
-      <c r="DE4" s="14"/>
-      <c r="DF4" s="14"/>
-      <c r="DG4" s="14"/>
-      <c r="DH4" s="14"/>
-      <c r="DI4" s="14"/>
-      <c r="DJ4" s="14"/>
-      <c r="DK4" s="14"/>
-      <c r="DL4" s="14"/>
-      <c r="DM4" s="14"/>
-      <c r="DN4" s="14"/>
-      <c r="DO4" s="14"/>
-      <c r="DP4" s="14"/>
-      <c r="DQ4" s="14"/>
-      <c r="DR4" s="14"/>
-      <c r="DS4" s="14"/>
-      <c r="DT4" s="14"/>
-      <c r="DU4" s="14"/>
-      <c r="DV4" s="14"/>
-      <c r="DW4" s="14"/>
-      <c r="DX4" s="14"/>
-      <c r="DY4" s="14"/>
-      <c r="DZ4" s="14"/>
-      <c r="EA4" s="14"/>
-      <c r="EB4" s="14"/>
-      <c r="EC4" s="14"/>
-      <c r="ED4" s="14"/>
-      <c r="EE4" s="14"/>
-      <c r="EF4" s="14"/>
-      <c r="EG4" s="14"/>
-      <c r="EH4" s="14"/>
-      <c r="EI4" s="14"/>
-      <c r="EJ4" s="14"/>
-      <c r="EK4" s="14"/>
-      <c r="EL4" s="14"/>
-      <c r="EM4" s="14"/>
-      <c r="EN4" s="14"/>
-      <c r="EO4" s="14"/>
-      <c r="EP4" s="14"/>
-      <c r="EQ4" s="14"/>
-      <c r="ER4" s="14"/>
-      <c r="ES4" s="14"/>
-      <c r="ET4" s="14"/>
-      <c r="EU4" s="14"/>
-      <c r="EV4" s="14"/>
-      <c r="EW4" s="14"/>
-      <c r="EX4" s="14"/>
-      <c r="EY4" s="14"/>
-      <c r="EZ4" s="14"/>
-      <c r="FA4" s="14"/>
-      <c r="FB4" s="14"/>
-      <c r="FC4" s="14"/>
-      <c r="FD4" s="14"/>
-      <c r="FE4" s="14"/>
-      <c r="FF4" s="14"/>
-      <c r="FG4" s="14"/>
-      <c r="FH4" s="14"/>
-      <c r="FI4" s="14"/>
-      <c r="FJ4" s="14"/>
-      <c r="FK4" s="14"/>
-      <c r="FL4" s="14"/>
-      <c r="FM4" s="14"/>
-      <c r="FN4" s="14"/>
-      <c r="FO4" s="14"/>
-      <c r="FP4" s="14"/>
-      <c r="FQ4" s="14"/>
-      <c r="FR4" s="14"/>
-      <c r="FS4" s="14"/>
-      <c r="FT4" s="14"/>
-      <c r="FU4" s="14"/>
-      <c r="FV4" s="14"/>
-      <c r="FW4" s="14"/>
-      <c r="FX4" s="14"/>
-      <c r="FY4" s="14"/>
-      <c r="FZ4" s="14"/>
-      <c r="GA4" s="14"/>
-      <c r="GB4" s="14"/>
-      <c r="GC4" s="14"/>
-      <c r="GD4" s="14"/>
-      <c r="GE4" s="14"/>
-      <c r="GF4" s="14"/>
-      <c r="GG4" s="14"/>
-      <c r="GH4" s="14"/>
-      <c r="GI4" s="14"/>
-      <c r="GJ4" s="14"/>
-      <c r="GK4" s="14"/>
-      <c r="GL4" s="14"/>
-      <c r="GM4" s="14"/>
-      <c r="GN4" s="14"/>
-      <c r="GO4" s="14"/>
-      <c r="GP4" s="14"/>
-      <c r="GQ4" s="14"/>
-      <c r="GR4" s="14"/>
-      <c r="GS4" s="14"/>
-      <c r="GT4" s="14"/>
-      <c r="GU4" s="14"/>
-      <c r="GV4" s="14"/>
-      <c r="GW4" s="14"/>
-      <c r="GX4" s="14"/>
-      <c r="GY4" s="14"/>
-      <c r="GZ4" s="14"/>
-      <c r="HA4" s="14"/>
-      <c r="HB4" s="14"/>
-      <c r="HC4" s="14"/>
-      <c r="HD4" s="14"/>
-      <c r="HE4" s="14"/>
-      <c r="HF4" s="14"/>
-      <c r="HG4" s="14"/>
-      <c r="HH4" s="14"/>
-      <c r="HI4" s="14"/>
-      <c r="HJ4" s="14"/>
-      <c r="HK4" s="14"/>
-      <c r="HL4" s="14"/>
-      <c r="HM4" s="14"/>
-      <c r="HN4" s="14"/>
-      <c r="HO4" s="14"/>
-      <c r="HP4" s="14"/>
-      <c r="HQ4" s="14"/>
-      <c r="HR4" s="14"/>
-      <c r="HS4" s="14"/>
-      <c r="HT4" s="14"/>
-      <c r="HU4" s="14"/>
-      <c r="HV4" s="14"/>
-      <c r="HW4" s="14"/>
-      <c r="HX4" s="14"/>
-      <c r="HY4" s="14"/>
-      <c r="HZ4" s="14"/>
-      <c r="IA4" s="14"/>
-      <c r="IB4" s="14"/>
-      <c r="IC4" s="14"/>
-      <c r="ID4" s="14"/>
-      <c r="IE4" s="14"/>
-      <c r="IF4" s="14"/>
-      <c r="IG4" s="14"/>
-      <c r="IH4" s="14"/>
-      <c r="II4" s="14"/>
-      <c r="IJ4" s="14"/>
-      <c r="IK4" s="14"/>
-      <c r="IL4" s="14"/>
-      <c r="IM4" s="14"/>
-      <c r="IN4" s="14"/>
-      <c r="IO4" s="14"/>
-      <c r="IP4" s="14"/>
-      <c r="IQ4" s="14"/>
-      <c r="IR4" s="14"/>
-      <c r="IS4" s="14"/>
-      <c r="IT4" s="14"/>
-      <c r="IU4" s="14"/>
-      <c r="IV4" s="14"/>
-      <c r="IW4" s="14"/>
-      <c r="IX4" s="14"/>
-      <c r="IY4" s="14"/>
-      <c r="IZ4" s="14"/>
-      <c r="JA4" s="14"/>
-      <c r="JB4" s="14"/>
-      <c r="JC4" s="14"/>
-      <c r="JD4" s="14"/>
-      <c r="JE4" s="14"/>
-      <c r="JF4" s="14"/>
-      <c r="JG4" s="14"/>
-      <c r="JH4" s="14"/>
-      <c r="JI4" s="14"/>
-      <c r="JJ4" s="14"/>
-      <c r="JK4" s="14"/>
-      <c r="JL4" s="14"/>
-      <c r="JM4" s="14"/>
-      <c r="JN4" s="14"/>
-      <c r="JO4" s="14"/>
-      <c r="JP4" s="14"/>
-      <c r="JQ4" s="14"/>
-      <c r="JR4" s="14"/>
-      <c r="JS4" s="14"/>
-      <c r="JT4" s="14"/>
-      <c r="JU4" s="14"/>
-      <c r="JV4" s="14"/>
-      <c r="JW4" s="14"/>
-      <c r="JX4" s="14"/>
-      <c r="JY4" s="14"/>
-      <c r="JZ4" s="14"/>
-      <c r="KA4" s="14"/>
-      <c r="KB4" s="14"/>
-      <c r="KC4" s="14"/>
-      <c r="KD4" s="14"/>
-      <c r="KE4" s="14"/>
-      <c r="KF4" s="14"/>
-      <c r="KG4" s="14"/>
-      <c r="KH4" s="14"/>
-      <c r="KI4" s="14"/>
-      <c r="KJ4" s="14"/>
-      <c r="KK4" s="14"/>
-      <c r="KL4" s="14"/>
-      <c r="KM4" s="14"/>
-      <c r="KN4" s="14"/>
-      <c r="KO4" s="14"/>
-      <c r="KP4" s="14"/>
-      <c r="KQ4" s="14"/>
-      <c r="KR4" s="14"/>
-      <c r="KS4" s="14"/>
-      <c r="KT4" s="14"/>
-      <c r="KU4" s="14"/>
-      <c r="KV4" s="14"/>
-      <c r="KW4" s="14"/>
-      <c r="KX4" s="14"/>
-      <c r="KY4" s="14"/>
-      <c r="KZ4" s="14"/>
-      <c r="LA4" s="14"/>
-      <c r="LB4" s="14"/>
-      <c r="LC4" s="14"/>
-      <c r="LD4" s="14"/>
-      <c r="LE4" s="14"/>
-      <c r="LF4" s="14"/>
-      <c r="LG4" s="14"/>
-      <c r="LH4" s="14"/>
-      <c r="LI4" s="14"/>
-      <c r="LJ4" s="14"/>
-      <c r="LK4" s="14"/>
-      <c r="LL4" s="14"/>
-      <c r="LM4" s="14"/>
-      <c r="LN4" s="14"/>
-      <c r="LO4" s="14"/>
-      <c r="LP4" s="14"/>
-      <c r="LQ4" s="14"/>
-      <c r="LR4" s="14"/>
-      <c r="LS4" s="14"/>
-      <c r="LT4" s="14"/>
-      <c r="LU4" s="14"/>
-      <c r="LV4" s="14"/>
-      <c r="LW4" s="14"/>
-      <c r="LX4" s="14"/>
-      <c r="LY4" s="14"/>
-      <c r="LZ4" s="14"/>
-      <c r="MA4" s="14"/>
-      <c r="MB4" s="14"/>
-      <c r="MC4" s="14"/>
-      <c r="MD4" s="14"/>
-      <c r="ME4" s="14"/>
-      <c r="MF4" s="14"/>
-      <c r="MG4" s="14"/>
-      <c r="MH4" s="14"/>
-      <c r="MI4" s="14"/>
-      <c r="MJ4" s="14"/>
-      <c r="MK4" s="14"/>
-      <c r="ML4" s="14"/>
-      <c r="MM4" s="14"/>
-      <c r="MN4" s="14"/>
-      <c r="MO4" s="14"/>
-      <c r="MP4" s="14"/>
-      <c r="MQ4" s="14"/>
-      <c r="MR4" s="14"/>
-      <c r="MS4" s="14"/>
-      <c r="MT4" s="14"/>
-      <c r="MU4" s="14"/>
-      <c r="MV4" s="14"/>
-      <c r="MW4" s="14"/>
-      <c r="MX4" s="14"/>
-      <c r="MY4" s="14"/>
-      <c r="MZ4" s="14"/>
-      <c r="NA4" s="14"/>
-      <c r="NB4" s="14"/>
-      <c r="NC4" s="14"/>
-      <c r="ND4" s="14"/>
-      <c r="NE4" s="14"/>
-      <c r="NF4" s="14"/>
-      <c r="NG4" s="14"/>
-      <c r="NH4" s="14"/>
-      <c r="NI4" s="14"/>
-      <c r="NJ4" s="14"/>
-      <c r="NK4" s="14"/>
-      <c r="NL4" s="14"/>
-      <c r="NM4" s="14"/>
-      <c r="NN4" s="14"/>
-      <c r="NO4" s="14"/>
-      <c r="NP4" s="14"/>
-      <c r="NQ4" s="14"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="21"/>
+      <c r="BD4" s="21"/>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="21"/>
+      <c r="BM4" s="21"/>
+      <c r="BN4" s="21"/>
+      <c r="BO4" s="21"/>
+      <c r="BP4" s="21"/>
+      <c r="BQ4" s="21"/>
+      <c r="BR4" s="21"/>
+      <c r="BS4" s="21"/>
+      <c r="BT4" s="21"/>
+      <c r="BU4" s="21"/>
+      <c r="BV4" s="21"/>
+      <c r="BW4" s="21"/>
+      <c r="BX4" s="21"/>
+      <c r="BY4" s="21"/>
+      <c r="BZ4" s="21"/>
+      <c r="CA4" s="21"/>
+      <c r="CB4" s="21"/>
+      <c r="CC4" s="21"/>
+      <c r="CD4" s="21"/>
+      <c r="CE4" s="21"/>
+      <c r="CF4" s="21"/>
+      <c r="CG4" s="21"/>
+      <c r="CH4" s="21"/>
+      <c r="CI4" s="21"/>
+      <c r="CJ4" s="21"/>
+      <c r="CK4" s="21"/>
+      <c r="CL4" s="21"/>
+      <c r="CM4" s="21"/>
+      <c r="CN4" s="21"/>
+      <c r="CO4" s="21"/>
+      <c r="CP4" s="21"/>
+      <c r="CQ4" s="21"/>
+      <c r="CR4" s="21"/>
+      <c r="CS4" s="21"/>
+      <c r="CT4" s="21"/>
+      <c r="CU4" s="21"/>
+      <c r="CV4" s="21"/>
+      <c r="CW4" s="21"/>
+      <c r="CX4" s="21"/>
+      <c r="CY4" s="21"/>
+      <c r="CZ4" s="21"/>
+      <c r="DA4" s="21"/>
+      <c r="DB4" s="21"/>
+      <c r="DC4" s="21"/>
+      <c r="DD4" s="21"/>
+      <c r="DE4" s="21"/>
+      <c r="DF4" s="21"/>
+      <c r="DG4" s="21"/>
+      <c r="DH4" s="21"/>
+      <c r="DI4" s="21"/>
+      <c r="DJ4" s="21"/>
+      <c r="DK4" s="21"/>
+      <c r="DL4" s="21"/>
+      <c r="DM4" s="21"/>
+      <c r="DN4" s="21"/>
+      <c r="DO4" s="21"/>
+      <c r="DP4" s="21"/>
+      <c r="DQ4" s="21"/>
+      <c r="DR4" s="21"/>
+      <c r="DS4" s="21"/>
+      <c r="DT4" s="21"/>
+      <c r="DU4" s="21"/>
+      <c r="DV4" s="21"/>
+      <c r="DW4" s="21"/>
+      <c r="DX4" s="21"/>
+      <c r="DY4" s="21"/>
+      <c r="DZ4" s="21"/>
+      <c r="EA4" s="21"/>
+      <c r="EB4" s="21"/>
+      <c r="EC4" s="21"/>
+      <c r="ED4" s="21"/>
+      <c r="EE4" s="21"/>
+      <c r="EF4" s="21"/>
+      <c r="EG4" s="21"/>
+      <c r="EH4" s="21"/>
+      <c r="EI4" s="21"/>
+      <c r="EJ4" s="21"/>
+      <c r="EK4" s="21"/>
+      <c r="EL4" s="21"/>
+      <c r="EM4" s="21"/>
+      <c r="EN4" s="21"/>
+      <c r="EO4" s="21"/>
+      <c r="EP4" s="21"/>
+      <c r="EQ4" s="21"/>
+      <c r="ER4" s="21"/>
+      <c r="ES4" s="21"/>
+      <c r="ET4" s="21"/>
+      <c r="EU4" s="21"/>
+      <c r="EV4" s="21"/>
+      <c r="EW4" s="21"/>
+      <c r="EX4" s="21"/>
+      <c r="EY4" s="21"/>
+      <c r="EZ4" s="21"/>
+      <c r="FA4" s="21"/>
+      <c r="FB4" s="21"/>
+      <c r="FC4" s="21"/>
+      <c r="FD4" s="21"/>
+      <c r="FE4" s="21"/>
+      <c r="FF4" s="21"/>
+      <c r="FG4" s="21"/>
+      <c r="FH4" s="21"/>
+      <c r="FI4" s="21"/>
+      <c r="FJ4" s="21"/>
+      <c r="FK4" s="21"/>
+      <c r="FL4" s="21"/>
+      <c r="FM4" s="21"/>
+      <c r="FN4" s="21"/>
+      <c r="FO4" s="21"/>
+      <c r="FP4" s="21"/>
+      <c r="FQ4" s="21"/>
+      <c r="FR4" s="21"/>
+      <c r="FS4" s="21"/>
+      <c r="FT4" s="21"/>
+      <c r="FU4" s="21"/>
+      <c r="FV4" s="21"/>
+      <c r="FW4" s="21"/>
+      <c r="FX4" s="21"/>
+      <c r="FY4" s="21"/>
+      <c r="FZ4" s="21"/>
+      <c r="GA4" s="21"/>
+      <c r="GB4" s="21"/>
+      <c r="GC4" s="21"/>
+      <c r="GD4" s="21"/>
+      <c r="GE4" s="21"/>
+      <c r="GF4" s="21"/>
+      <c r="GG4" s="21"/>
+      <c r="GH4" s="21"/>
+      <c r="GI4" s="21"/>
+      <c r="GJ4" s="21"/>
+      <c r="GK4" s="21"/>
+      <c r="GL4" s="21"/>
+      <c r="GM4" s="21"/>
+      <c r="GN4" s="21"/>
+      <c r="GO4" s="21"/>
+      <c r="GP4" s="21"/>
+      <c r="GQ4" s="21"/>
+      <c r="GR4" s="21"/>
+      <c r="GS4" s="21"/>
+      <c r="GT4" s="21"/>
+      <c r="GU4" s="21"/>
+      <c r="GV4" s="21"/>
+      <c r="GW4" s="21"/>
+      <c r="GX4" s="21"/>
+      <c r="GY4" s="21"/>
+      <c r="GZ4" s="21"/>
+      <c r="HA4" s="21"/>
+      <c r="HB4" s="21"/>
+      <c r="HC4" s="21"/>
+      <c r="HD4" s="21"/>
+      <c r="HE4" s="21"/>
+      <c r="HF4" s="21"/>
+      <c r="HG4" s="21"/>
+      <c r="HH4" s="21"/>
+      <c r="HI4" s="21"/>
+      <c r="HJ4" s="21"/>
+      <c r="HK4" s="21"/>
+      <c r="HL4" s="21"/>
+      <c r="HM4" s="21"/>
+      <c r="HN4" s="21"/>
+      <c r="HO4" s="21"/>
+      <c r="HP4" s="21"/>
+      <c r="HQ4" s="21"/>
+      <c r="HR4" s="21"/>
+      <c r="HS4" s="21"/>
+      <c r="HT4" s="21"/>
+      <c r="HU4" s="21"/>
+      <c r="HV4" s="21"/>
+      <c r="HW4" s="21"/>
+      <c r="HX4" s="21"/>
+      <c r="HY4" s="21"/>
+      <c r="HZ4" s="21"/>
+      <c r="IA4" s="21"/>
+      <c r="IB4" s="21"/>
+      <c r="IC4" s="21"/>
+      <c r="ID4" s="21"/>
+      <c r="IE4" s="21"/>
+      <c r="IF4" s="21"/>
+      <c r="IG4" s="21"/>
+      <c r="IH4" s="21"/>
+      <c r="II4" s="21"/>
+      <c r="IJ4" s="21"/>
+      <c r="IK4" s="21"/>
+      <c r="IL4" s="21"/>
+      <c r="IM4" s="21"/>
+      <c r="IN4" s="21"/>
+      <c r="IO4" s="21"/>
+      <c r="IP4" s="21"/>
+      <c r="IQ4" s="21"/>
+      <c r="IR4" s="21"/>
+      <c r="IS4" s="21"/>
+      <c r="IT4" s="21"/>
+      <c r="IU4" s="21"/>
+      <c r="IV4" s="21"/>
+      <c r="IW4" s="21"/>
+      <c r="IX4" s="21"/>
+      <c r="IY4" s="21"/>
+      <c r="IZ4" s="21"/>
+      <c r="JA4" s="21"/>
+      <c r="JB4" s="21"/>
+      <c r="JC4" s="21"/>
+      <c r="JD4" s="21"/>
+      <c r="JE4" s="21"/>
+      <c r="JF4" s="21"/>
+      <c r="JG4" s="21"/>
+      <c r="JH4" s="21"/>
+      <c r="JI4" s="21"/>
+      <c r="JJ4" s="21"/>
+      <c r="JK4" s="21"/>
+      <c r="JL4" s="21"/>
+      <c r="JM4" s="21"/>
+      <c r="JN4" s="21"/>
+      <c r="JO4" s="21"/>
+      <c r="JP4" s="21"/>
+      <c r="JQ4" s="21"/>
+      <c r="JR4" s="21"/>
+      <c r="JS4" s="21"/>
+      <c r="JT4" s="21"/>
+      <c r="JU4" s="21"/>
+      <c r="JV4" s="21"/>
+      <c r="JW4" s="21"/>
+      <c r="JX4" s="21"/>
+      <c r="JY4" s="21"/>
+      <c r="JZ4" s="21"/>
+      <c r="KA4" s="21"/>
+      <c r="KB4" s="21"/>
+      <c r="KC4" s="21"/>
+      <c r="KD4" s="21"/>
+      <c r="KE4" s="21"/>
+      <c r="KF4" s="21"/>
+      <c r="KG4" s="21"/>
+      <c r="KH4" s="21"/>
+      <c r="KI4" s="21"/>
+      <c r="KJ4" s="21"/>
+      <c r="KK4" s="21"/>
+      <c r="KL4" s="21"/>
+      <c r="KM4" s="21"/>
+      <c r="KN4" s="21"/>
+      <c r="KO4" s="21"/>
+      <c r="KP4" s="21"/>
+      <c r="KQ4" s="21"/>
+      <c r="KR4" s="21"/>
+      <c r="KS4" s="21"/>
+      <c r="KT4" s="21"/>
+      <c r="KU4" s="21"/>
+      <c r="KV4" s="21"/>
+      <c r="KW4" s="21"/>
+      <c r="KX4" s="21"/>
+      <c r="KY4" s="21"/>
+      <c r="KZ4" s="21"/>
+      <c r="LA4" s="21"/>
+      <c r="LB4" s="21"/>
+      <c r="LC4" s="21"/>
+      <c r="LD4" s="21"/>
+      <c r="LE4" s="21"/>
+      <c r="LF4" s="21"/>
+      <c r="LG4" s="21"/>
+      <c r="LH4" s="21"/>
+      <c r="LI4" s="21"/>
+      <c r="LJ4" s="21"/>
+      <c r="LK4" s="21"/>
+      <c r="LL4" s="21"/>
+      <c r="LM4" s="21"/>
+      <c r="LN4" s="21"/>
+      <c r="LO4" s="21"/>
+      <c r="LP4" s="21"/>
+      <c r="LQ4" s="21"/>
+      <c r="LR4" s="21"/>
+      <c r="LS4" s="21"/>
+      <c r="LT4" s="21"/>
+      <c r="LU4" s="21"/>
+      <c r="LV4" s="21"/>
+      <c r="LW4" s="21"/>
+      <c r="LX4" s="21"/>
+      <c r="LY4" s="21"/>
+      <c r="LZ4" s="21"/>
+      <c r="MA4" s="21"/>
+      <c r="MB4" s="21"/>
+      <c r="MC4" s="21"/>
+      <c r="MD4" s="21"/>
+      <c r="ME4" s="21"/>
+      <c r="MF4" s="21"/>
+      <c r="MG4" s="21"/>
+      <c r="MH4" s="21"/>
+      <c r="MI4" s="21"/>
+      <c r="MJ4" s="21"/>
+      <c r="MK4" s="21"/>
+      <c r="ML4" s="21"/>
+      <c r="MM4" s="21"/>
+      <c r="MN4" s="21"/>
+      <c r="MO4" s="21"/>
+      <c r="MP4" s="21"/>
+      <c r="MQ4" s="21"/>
+      <c r="MR4" s="21"/>
+      <c r="MS4" s="21"/>
+      <c r="MT4" s="21"/>
+      <c r="MU4" s="21"/>
+      <c r="MV4" s="21"/>
+      <c r="MW4" s="21"/>
+      <c r="MX4" s="21"/>
+      <c r="MY4" s="21"/>
+      <c r="MZ4" s="21"/>
+      <c r="NA4" s="21"/>
+      <c r="NB4" s="21"/>
+      <c r="NC4" s="21"/>
+      <c r="ND4" s="21"/>
+      <c r="NE4" s="21"/>
+      <c r="NF4" s="21"/>
+      <c r="NG4" s="21"/>
+      <c r="NH4" s="21"/>
+      <c r="NI4" s="21"/>
+      <c r="NJ4" s="21"/>
+      <c r="NK4" s="21"/>
+      <c r="NL4" s="21"/>
+      <c r="NM4" s="21"/>
+      <c r="NN4" s="21"/>
+      <c r="NO4" s="21"/>
+      <c r="NP4" s="21"/>
+      <c r="NQ4" s="21"/>
     </row>
     <row r="5" spans="1:381" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>384</v>
       </c>
@@ -11040,783 +11056,783 @@
       </c>
     </row>
     <row r="9" spans="1:381" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="15"/>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="15"/>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15"/>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15"/>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CD9" s="15"/>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="15"/>
-      <c r="CH9" s="15"/>
-      <c r="CI9" s="15"/>
-      <c r="CJ9" s="15"/>
-      <c r="CK9" s="15"/>
-      <c r="CL9" s="15"/>
-      <c r="CM9" s="15"/>
-      <c r="CN9" s="15"/>
-      <c r="CO9" s="15"/>
-      <c r="CP9" s="15"/>
-      <c r="CQ9" s="15"/>
-      <c r="CR9" s="15"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15"/>
-      <c r="CU9" s="15"/>
-      <c r="CV9" s="15"/>
-      <c r="CW9" s="15"/>
-      <c r="CX9" s="15"/>
-      <c r="CY9" s="15"/>
-      <c r="CZ9" s="15"/>
-      <c r="DA9" s="15"/>
-      <c r="DB9" s="15"/>
-      <c r="DC9" s="15"/>
-      <c r="DD9" s="15"/>
-      <c r="DE9" s="15"/>
-      <c r="DF9" s="15"/>
-      <c r="DG9" s="15"/>
-      <c r="DH9" s="15"/>
-      <c r="DI9" s="15"/>
-      <c r="DJ9" s="15"/>
-      <c r="DK9" s="15"/>
-      <c r="DL9" s="15"/>
-      <c r="DM9" s="15"/>
-      <c r="DN9" s="15"/>
-      <c r="DO9" s="15"/>
-      <c r="DP9" s="15"/>
-      <c r="DQ9" s="15"/>
-      <c r="DR9" s="15"/>
-      <c r="DS9" s="15"/>
-      <c r="DT9" s="15"/>
-      <c r="DU9" s="15"/>
-      <c r="DV9" s="15"/>
-      <c r="DW9" s="15"/>
-      <c r="DX9" s="15"/>
-      <c r="DY9" s="15"/>
-      <c r="DZ9" s="15"/>
-      <c r="EA9" s="15"/>
-      <c r="EB9" s="15"/>
-      <c r="EC9" s="15"/>
-      <c r="ED9" s="15"/>
-      <c r="EE9" s="15"/>
-      <c r="EF9" s="15"/>
-      <c r="EG9" s="15"/>
-      <c r="EH9" s="15"/>
-      <c r="EI9" s="15"/>
-      <c r="EJ9" s="15"/>
-      <c r="EK9" s="15"/>
-      <c r="EL9" s="15"/>
-      <c r="EM9" s="15"/>
-      <c r="EN9" s="15"/>
-      <c r="EO9" s="15"/>
-      <c r="EP9" s="15"/>
-      <c r="EQ9" s="15"/>
-      <c r="ER9" s="15"/>
-      <c r="ES9" s="15"/>
-      <c r="ET9" s="15"/>
-      <c r="EU9" s="15"/>
-      <c r="EV9" s="15"/>
-      <c r="EW9" s="15"/>
-      <c r="EX9" s="15"/>
-      <c r="EY9" s="15"/>
-      <c r="EZ9" s="15"/>
-      <c r="FA9" s="15"/>
-      <c r="FB9" s="15"/>
-      <c r="FC9" s="15"/>
-      <c r="FD9" s="15"/>
-      <c r="FE9" s="15"/>
-      <c r="FF9" s="15"/>
-      <c r="FG9" s="15"/>
-      <c r="FH9" s="15"/>
-      <c r="FI9" s="15"/>
-      <c r="FJ9" s="15"/>
-      <c r="FK9" s="15"/>
-      <c r="FL9" s="15"/>
-      <c r="FM9" s="15"/>
-      <c r="FN9" s="15"/>
-      <c r="FO9" s="15"/>
-      <c r="FP9" s="15"/>
-      <c r="FQ9" s="15"/>
-      <c r="FR9" s="15"/>
-      <c r="FS9" s="15"/>
-      <c r="FT9" s="15"/>
-      <c r="FU9" s="15"/>
-      <c r="FV9" s="15"/>
-      <c r="FW9" s="15"/>
-      <c r="FX9" s="15"/>
-      <c r="FY9" s="15"/>
-      <c r="FZ9" s="15"/>
-      <c r="GA9" s="15"/>
-      <c r="GB9" s="15"/>
-      <c r="GC9" s="15"/>
-      <c r="GD9" s="15"/>
-      <c r="GE9" s="15"/>
-      <c r="GF9" s="15"/>
-      <c r="GG9" s="15"/>
-      <c r="GH9" s="15"/>
-      <c r="GI9" s="15"/>
-      <c r="GJ9" s="15"/>
-      <c r="GK9" s="15"/>
-      <c r="GL9" s="15"/>
-      <c r="GM9" s="15"/>
-      <c r="GN9" s="15"/>
-      <c r="GO9" s="15"/>
-      <c r="GP9" s="15"/>
-      <c r="GQ9" s="15"/>
-      <c r="GR9" s="15"/>
-      <c r="GS9" s="15"/>
-      <c r="GT9" s="15"/>
-      <c r="GU9" s="15"/>
-      <c r="GV9" s="15"/>
-      <c r="GW9" s="15"/>
-      <c r="GX9" s="15"/>
-      <c r="GY9" s="15"/>
-      <c r="GZ9" s="15"/>
-      <c r="HA9" s="15"/>
-      <c r="HB9" s="15"/>
-      <c r="HC9" s="15"/>
-      <c r="HD9" s="15"/>
-      <c r="HE9" s="15"/>
-      <c r="HF9" s="15"/>
-      <c r="HG9" s="15"/>
-      <c r="HH9" s="15"/>
-      <c r="HI9" s="15"/>
-      <c r="HJ9" s="15"/>
-      <c r="HK9" s="15"/>
-      <c r="HL9" s="15"/>
-      <c r="HM9" s="15"/>
-      <c r="HN9" s="15"/>
-      <c r="HO9" s="15"/>
-      <c r="HP9" s="15"/>
-      <c r="HQ9" s="15"/>
-      <c r="HR9" s="15"/>
-      <c r="HS9" s="15"/>
-      <c r="HT9" s="15"/>
-      <c r="HU9" s="15"/>
-      <c r="HV9" s="15"/>
-      <c r="HW9" s="15"/>
-      <c r="HX9" s="15"/>
-      <c r="HY9" s="15"/>
-      <c r="HZ9" s="15"/>
-      <c r="IA9" s="15"/>
-      <c r="IB9" s="15"/>
-      <c r="IC9" s="15"/>
-      <c r="ID9" s="15"/>
-      <c r="IE9" s="15"/>
-      <c r="IF9" s="15"/>
-      <c r="IG9" s="15"/>
-      <c r="IH9" s="15"/>
-      <c r="II9" s="15"/>
-      <c r="IJ9" s="15"/>
-      <c r="IK9" s="15"/>
-      <c r="IL9" s="15"/>
-      <c r="IM9" s="15"/>
-      <c r="IN9" s="15"/>
-      <c r="IO9" s="15"/>
-      <c r="IP9" s="15"/>
-      <c r="IQ9" s="15"/>
-      <c r="IR9" s="15"/>
-      <c r="IS9" s="15"/>
-      <c r="IT9" s="15"/>
-      <c r="IU9" s="15"/>
-      <c r="IV9" s="15"/>
-      <c r="IW9" s="15"/>
-      <c r="IX9" s="15"/>
-      <c r="IY9" s="15"/>
-      <c r="IZ9" s="15"/>
-      <c r="JA9" s="15"/>
-      <c r="JB9" s="15"/>
-      <c r="JC9" s="15"/>
-      <c r="JD9" s="15"/>
-      <c r="JE9" s="15"/>
-      <c r="JF9" s="15"/>
-      <c r="JG9" s="15"/>
-      <c r="JH9" s="15"/>
-      <c r="JI9" s="15"/>
-      <c r="JJ9" s="15"/>
-      <c r="JK9" s="15"/>
-      <c r="JL9" s="15"/>
-      <c r="JM9" s="15"/>
-      <c r="JN9" s="15"/>
-      <c r="JO9" s="15"/>
-      <c r="JP9" s="15"/>
-      <c r="JQ9" s="15"/>
-      <c r="JR9" s="15"/>
-      <c r="JS9" s="15"/>
-      <c r="JT9" s="15"/>
-      <c r="JU9" s="15"/>
-      <c r="JV9" s="15"/>
-      <c r="JW9" s="15"/>
-      <c r="JX9" s="15"/>
-      <c r="JY9" s="15"/>
-      <c r="JZ9" s="15"/>
-      <c r="KA9" s="15"/>
-      <c r="KB9" s="15"/>
-      <c r="KC9" s="15"/>
-      <c r="KD9" s="15"/>
-      <c r="KE9" s="15"/>
-      <c r="KF9" s="15"/>
-      <c r="KG9" s="15"/>
-      <c r="KH9" s="15"/>
-      <c r="KI9" s="15"/>
-      <c r="KJ9" s="15"/>
-      <c r="KK9" s="15"/>
-      <c r="KL9" s="15"/>
-      <c r="KM9" s="15"/>
-      <c r="KN9" s="15"/>
-      <c r="KO9" s="15"/>
-      <c r="KP9" s="15"/>
-      <c r="KQ9" s="15"/>
-      <c r="KR9" s="15"/>
-      <c r="KS9" s="15"/>
-      <c r="KT9" s="15"/>
-      <c r="KU9" s="15"/>
-      <c r="KV9" s="15"/>
-      <c r="KW9" s="15"/>
-      <c r="KX9" s="15"/>
-      <c r="KY9" s="15"/>
-      <c r="KZ9" s="15"/>
-      <c r="LA9" s="15"/>
-      <c r="LB9" s="15"/>
-      <c r="LC9" s="15"/>
-      <c r="LD9" s="15"/>
-      <c r="LE9" s="15"/>
-      <c r="LF9" s="15"/>
-      <c r="LG9" s="15"/>
-      <c r="LH9" s="15"/>
-      <c r="LI9" s="15"/>
-      <c r="LJ9" s="15"/>
-      <c r="LK9" s="15"/>
-      <c r="LL9" s="15"/>
-      <c r="LM9" s="15"/>
-      <c r="LN9" s="15"/>
-      <c r="LO9" s="15"/>
-      <c r="LP9" s="15"/>
-      <c r="LQ9" s="15"/>
-      <c r="LR9" s="15"/>
-      <c r="LS9" s="15"/>
-      <c r="LT9" s="15"/>
-      <c r="LU9" s="15"/>
-      <c r="LV9" s="15"/>
-      <c r="LW9" s="15"/>
-      <c r="LX9" s="15"/>
-      <c r="LY9" s="15"/>
-      <c r="LZ9" s="15"/>
-      <c r="MA9" s="15"/>
-      <c r="MB9" s="15"/>
-      <c r="MC9" s="15"/>
-      <c r="MD9" s="15"/>
-      <c r="ME9" s="15"/>
-      <c r="MF9" s="15"/>
-      <c r="MG9" s="15"/>
-      <c r="MH9" s="15"/>
-      <c r="MI9" s="15"/>
-      <c r="MJ9" s="15"/>
-      <c r="MK9" s="15"/>
-      <c r="ML9" s="15"/>
-      <c r="MM9" s="15"/>
-      <c r="MN9" s="15"/>
-      <c r="MO9" s="15"/>
-      <c r="MP9" s="15"/>
-      <c r="MQ9" s="15"/>
-      <c r="MR9" s="15"/>
-      <c r="MS9" s="15"/>
-      <c r="MT9" s="15"/>
-      <c r="MU9" s="15"/>
-      <c r="MV9" s="15"/>
-      <c r="MW9" s="15"/>
-      <c r="MX9" s="15"/>
-      <c r="MY9" s="15"/>
-      <c r="MZ9" s="15"/>
-      <c r="NA9" s="15"/>
-      <c r="NB9" s="15"/>
-      <c r="NC9" s="15"/>
-      <c r="ND9" s="15"/>
-      <c r="NE9" s="15"/>
-      <c r="NF9" s="15"/>
-      <c r="NG9" s="15"/>
-      <c r="NH9" s="15"/>
-      <c r="NI9" s="15"/>
-      <c r="NJ9" s="15"/>
-      <c r="NK9" s="15"/>
-      <c r="NL9" s="15"/>
-      <c r="NM9" s="15"/>
-      <c r="NN9" s="15"/>
-      <c r="NO9" s="15"/>
-      <c r="NP9" s="15"/>
-      <c r="NQ9" s="15"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22"/>
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22"/>
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22"/>
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22"/>
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22"/>
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22"/>
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22"/>
+      <c r="CU9" s="22"/>
+      <c r="CV9" s="22"/>
+      <c r="CW9" s="22"/>
+      <c r="CX9" s="22"/>
+      <c r="CY9" s="22"/>
+      <c r="CZ9" s="22"/>
+      <c r="DA9" s="22"/>
+      <c r="DB9" s="22"/>
+      <c r="DC9" s="22"/>
+      <c r="DD9" s="22"/>
+      <c r="DE9" s="22"/>
+      <c r="DF9" s="22"/>
+      <c r="DG9" s="22"/>
+      <c r="DH9" s="22"/>
+      <c r="DI9" s="22"/>
+      <c r="DJ9" s="22"/>
+      <c r="DK9" s="22"/>
+      <c r="DL9" s="22"/>
+      <c r="DM9" s="22"/>
+      <c r="DN9" s="22"/>
+      <c r="DO9" s="22"/>
+      <c r="DP9" s="22"/>
+      <c r="DQ9" s="22"/>
+      <c r="DR9" s="22"/>
+      <c r="DS9" s="22"/>
+      <c r="DT9" s="22"/>
+      <c r="DU9" s="22"/>
+      <c r="DV9" s="22"/>
+      <c r="DW9" s="22"/>
+      <c r="DX9" s="22"/>
+      <c r="DY9" s="22"/>
+      <c r="DZ9" s="22"/>
+      <c r="EA9" s="22"/>
+      <c r="EB9" s="22"/>
+      <c r="EC9" s="22"/>
+      <c r="ED9" s="22"/>
+      <c r="EE9" s="22"/>
+      <c r="EF9" s="22"/>
+      <c r="EG9" s="22"/>
+      <c r="EH9" s="22"/>
+      <c r="EI9" s="22"/>
+      <c r="EJ9" s="22"/>
+      <c r="EK9" s="22"/>
+      <c r="EL9" s="22"/>
+      <c r="EM9" s="22"/>
+      <c r="EN9" s="22"/>
+      <c r="EO9" s="22"/>
+      <c r="EP9" s="22"/>
+      <c r="EQ9" s="22"/>
+      <c r="ER9" s="22"/>
+      <c r="ES9" s="22"/>
+      <c r="ET9" s="22"/>
+      <c r="EU9" s="22"/>
+      <c r="EV9" s="22"/>
+      <c r="EW9" s="22"/>
+      <c r="EX9" s="22"/>
+      <c r="EY9" s="22"/>
+      <c r="EZ9" s="22"/>
+      <c r="FA9" s="22"/>
+      <c r="FB9" s="22"/>
+      <c r="FC9" s="22"/>
+      <c r="FD9" s="22"/>
+      <c r="FE9" s="22"/>
+      <c r="FF9" s="22"/>
+      <c r="FG9" s="22"/>
+      <c r="FH9" s="22"/>
+      <c r="FI9" s="22"/>
+      <c r="FJ9" s="22"/>
+      <c r="FK9" s="22"/>
+      <c r="FL9" s="22"/>
+      <c r="FM9" s="22"/>
+      <c r="FN9" s="22"/>
+      <c r="FO9" s="22"/>
+      <c r="FP9" s="22"/>
+      <c r="FQ9" s="22"/>
+      <c r="FR9" s="22"/>
+      <c r="FS9" s="22"/>
+      <c r="FT9" s="22"/>
+      <c r="FU9" s="22"/>
+      <c r="FV9" s="22"/>
+      <c r="FW9" s="22"/>
+      <c r="FX9" s="22"/>
+      <c r="FY9" s="22"/>
+      <c r="FZ9" s="22"/>
+      <c r="GA9" s="22"/>
+      <c r="GB9" s="22"/>
+      <c r="GC9" s="22"/>
+      <c r="GD9" s="22"/>
+      <c r="GE9" s="22"/>
+      <c r="GF9" s="22"/>
+      <c r="GG9" s="22"/>
+      <c r="GH9" s="22"/>
+      <c r="GI9" s="22"/>
+      <c r="GJ9" s="22"/>
+      <c r="GK9" s="22"/>
+      <c r="GL9" s="22"/>
+      <c r="GM9" s="22"/>
+      <c r="GN9" s="22"/>
+      <c r="GO9" s="22"/>
+      <c r="GP9" s="22"/>
+      <c r="GQ9" s="22"/>
+      <c r="GR9" s="22"/>
+      <c r="GS9" s="22"/>
+      <c r="GT9" s="22"/>
+      <c r="GU9" s="22"/>
+      <c r="GV9" s="22"/>
+      <c r="GW9" s="22"/>
+      <c r="GX9" s="22"/>
+      <c r="GY9" s="22"/>
+      <c r="GZ9" s="22"/>
+      <c r="HA9" s="22"/>
+      <c r="HB9" s="22"/>
+      <c r="HC9" s="22"/>
+      <c r="HD9" s="22"/>
+      <c r="HE9" s="22"/>
+      <c r="HF9" s="22"/>
+      <c r="HG9" s="22"/>
+      <c r="HH9" s="22"/>
+      <c r="HI9" s="22"/>
+      <c r="HJ9" s="22"/>
+      <c r="HK9" s="22"/>
+      <c r="HL9" s="22"/>
+      <c r="HM9" s="22"/>
+      <c r="HN9" s="22"/>
+      <c r="HO9" s="22"/>
+      <c r="HP9" s="22"/>
+      <c r="HQ9" s="22"/>
+      <c r="HR9" s="22"/>
+      <c r="HS9" s="22"/>
+      <c r="HT9" s="22"/>
+      <c r="HU9" s="22"/>
+      <c r="HV9" s="22"/>
+      <c r="HW9" s="22"/>
+      <c r="HX9" s="22"/>
+      <c r="HY9" s="22"/>
+      <c r="HZ9" s="22"/>
+      <c r="IA9" s="22"/>
+      <c r="IB9" s="22"/>
+      <c r="IC9" s="22"/>
+      <c r="ID9" s="22"/>
+      <c r="IE9" s="22"/>
+      <c r="IF9" s="22"/>
+      <c r="IG9" s="22"/>
+      <c r="IH9" s="22"/>
+      <c r="II9" s="22"/>
+      <c r="IJ9" s="22"/>
+      <c r="IK9" s="22"/>
+      <c r="IL9" s="22"/>
+      <c r="IM9" s="22"/>
+      <c r="IN9" s="22"/>
+      <c r="IO9" s="22"/>
+      <c r="IP9" s="22"/>
+      <c r="IQ9" s="22"/>
+      <c r="IR9" s="22"/>
+      <c r="IS9" s="22"/>
+      <c r="IT9" s="22"/>
+      <c r="IU9" s="22"/>
+      <c r="IV9" s="22"/>
+      <c r="IW9" s="22"/>
+      <c r="IX9" s="22"/>
+      <c r="IY9" s="22"/>
+      <c r="IZ9" s="22"/>
+      <c r="JA9" s="22"/>
+      <c r="JB9" s="22"/>
+      <c r="JC9" s="22"/>
+      <c r="JD9" s="22"/>
+      <c r="JE9" s="22"/>
+      <c r="JF9" s="22"/>
+      <c r="JG9" s="22"/>
+      <c r="JH9" s="22"/>
+      <c r="JI9" s="22"/>
+      <c r="JJ9" s="22"/>
+      <c r="JK9" s="22"/>
+      <c r="JL9" s="22"/>
+      <c r="JM9" s="22"/>
+      <c r="JN9" s="22"/>
+      <c r="JO9" s="22"/>
+      <c r="JP9" s="22"/>
+      <c r="JQ9" s="22"/>
+      <c r="JR9" s="22"/>
+      <c r="JS9" s="22"/>
+      <c r="JT9" s="22"/>
+      <c r="JU9" s="22"/>
+      <c r="JV9" s="22"/>
+      <c r="JW9" s="22"/>
+      <c r="JX9" s="22"/>
+      <c r="JY9" s="22"/>
+      <c r="JZ9" s="22"/>
+      <c r="KA9" s="22"/>
+      <c r="KB9" s="22"/>
+      <c r="KC9" s="22"/>
+      <c r="KD9" s="22"/>
+      <c r="KE9" s="22"/>
+      <c r="KF9" s="22"/>
+      <c r="KG9" s="22"/>
+      <c r="KH9" s="22"/>
+      <c r="KI9" s="22"/>
+      <c r="KJ9" s="22"/>
+      <c r="KK9" s="22"/>
+      <c r="KL9" s="22"/>
+      <c r="KM9" s="22"/>
+      <c r="KN9" s="22"/>
+      <c r="KO9" s="22"/>
+      <c r="KP9" s="22"/>
+      <c r="KQ9" s="22"/>
+      <c r="KR9" s="22"/>
+      <c r="KS9" s="22"/>
+      <c r="KT9" s="22"/>
+      <c r="KU9" s="22"/>
+      <c r="KV9" s="22"/>
+      <c r="KW9" s="22"/>
+      <c r="KX9" s="22"/>
+      <c r="KY9" s="22"/>
+      <c r="KZ9" s="22"/>
+      <c r="LA9" s="22"/>
+      <c r="LB9" s="22"/>
+      <c r="LC9" s="22"/>
+      <c r="LD9" s="22"/>
+      <c r="LE9" s="22"/>
+      <c r="LF9" s="22"/>
+      <c r="LG9" s="22"/>
+      <c r="LH9" s="22"/>
+      <c r="LI9" s="22"/>
+      <c r="LJ9" s="22"/>
+      <c r="LK9" s="22"/>
+      <c r="LL9" s="22"/>
+      <c r="LM9" s="22"/>
+      <c r="LN9" s="22"/>
+      <c r="LO9" s="22"/>
+      <c r="LP9" s="22"/>
+      <c r="LQ9" s="22"/>
+      <c r="LR9" s="22"/>
+      <c r="LS9" s="22"/>
+      <c r="LT9" s="22"/>
+      <c r="LU9" s="22"/>
+      <c r="LV9" s="22"/>
+      <c r="LW9" s="22"/>
+      <c r="LX9" s="22"/>
+      <c r="LY9" s="22"/>
+      <c r="LZ9" s="22"/>
+      <c r="MA9" s="22"/>
+      <c r="MB9" s="22"/>
+      <c r="MC9" s="22"/>
+      <c r="MD9" s="22"/>
+      <c r="ME9" s="22"/>
+      <c r="MF9" s="22"/>
+      <c r="MG9" s="22"/>
+      <c r="MH9" s="22"/>
+      <c r="MI9" s="22"/>
+      <c r="MJ9" s="22"/>
+      <c r="MK9" s="22"/>
+      <c r="ML9" s="22"/>
+      <c r="MM9" s="22"/>
+      <c r="MN9" s="22"/>
+      <c r="MO9" s="22"/>
+      <c r="MP9" s="22"/>
+      <c r="MQ9" s="22"/>
+      <c r="MR9" s="22"/>
+      <c r="MS9" s="22"/>
+      <c r="MT9" s="22"/>
+      <c r="MU9" s="22"/>
+      <c r="MV9" s="22"/>
+      <c r="MW9" s="22"/>
+      <c r="MX9" s="22"/>
+      <c r="MY9" s="22"/>
+      <c r="MZ9" s="22"/>
+      <c r="NA9" s="22"/>
+      <c r="NB9" s="22"/>
+      <c r="NC9" s="22"/>
+      <c r="ND9" s="22"/>
+      <c r="NE9" s="22"/>
+      <c r="NF9" s="22"/>
+      <c r="NG9" s="22"/>
+      <c r="NH9" s="22"/>
+      <c r="NI9" s="22"/>
+      <c r="NJ9" s="22"/>
+      <c r="NK9" s="22"/>
+      <c r="NL9" s="22"/>
+      <c r="NM9" s="22"/>
+      <c r="NN9" s="22"/>
+      <c r="NO9" s="22"/>
+      <c r="NP9" s="22"/>
+      <c r="NQ9" s="22"/>
     </row>
     <row r="10" spans="1:381" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="15"/>
-      <c r="BN10" s="15"/>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
-      <c r="BR10" s="15"/>
-      <c r="BS10" s="15"/>
-      <c r="BT10" s="15"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="15"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="15"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="15"/>
-      <c r="CA10" s="15"/>
-      <c r="CB10" s="15"/>
-      <c r="CC10" s="15"/>
-      <c r="CD10" s="15"/>
-      <c r="CE10" s="15"/>
-      <c r="CF10" s="15"/>
-      <c r="CG10" s="15"/>
-      <c r="CH10" s="15"/>
-      <c r="CI10" s="15"/>
-      <c r="CJ10" s="15"/>
-      <c r="CK10" s="15"/>
-      <c r="CL10" s="15"/>
-      <c r="CM10" s="15"/>
-      <c r="CN10" s="15"/>
-      <c r="CO10" s="15"/>
-      <c r="CP10" s="15"/>
-      <c r="CQ10" s="15"/>
-      <c r="CR10" s="15"/>
-      <c r="CS10" s="15"/>
-      <c r="CT10" s="15"/>
-      <c r="CU10" s="15"/>
-      <c r="CV10" s="15"/>
-      <c r="CW10" s="15"/>
-      <c r="CX10" s="15"/>
-      <c r="CY10" s="15"/>
-      <c r="CZ10" s="15"/>
-      <c r="DA10" s="15"/>
-      <c r="DB10" s="15"/>
-      <c r="DC10" s="15"/>
-      <c r="DD10" s="15"/>
-      <c r="DE10" s="15"/>
-      <c r="DF10" s="15"/>
-      <c r="DG10" s="15"/>
-      <c r="DH10" s="15"/>
-      <c r="DI10" s="15"/>
-      <c r="DJ10" s="15"/>
-      <c r="DK10" s="15"/>
-      <c r="DL10" s="15"/>
-      <c r="DM10" s="15"/>
-      <c r="DN10" s="15"/>
-      <c r="DO10" s="15"/>
-      <c r="DP10" s="15"/>
-      <c r="DQ10" s="15"/>
-      <c r="DR10" s="15"/>
-      <c r="DS10" s="15"/>
-      <c r="DT10" s="15"/>
-      <c r="DU10" s="15"/>
-      <c r="DV10" s="15"/>
-      <c r="DW10" s="15"/>
-      <c r="DX10" s="15"/>
-      <c r="DY10" s="15"/>
-      <c r="DZ10" s="15"/>
-      <c r="EA10" s="15"/>
-      <c r="EB10" s="15"/>
-      <c r="EC10" s="15"/>
-      <c r="ED10" s="15"/>
-      <c r="EE10" s="15"/>
-      <c r="EF10" s="15"/>
-      <c r="EG10" s="15"/>
-      <c r="EH10" s="15"/>
-      <c r="EI10" s="15"/>
-      <c r="EJ10" s="15"/>
-      <c r="EK10" s="15"/>
-      <c r="EL10" s="15"/>
-      <c r="EM10" s="15"/>
-      <c r="EN10" s="15"/>
-      <c r="EO10" s="15"/>
-      <c r="EP10" s="15"/>
-      <c r="EQ10" s="15"/>
-      <c r="ER10" s="15"/>
-      <c r="ES10" s="15"/>
-      <c r="ET10" s="15"/>
-      <c r="EU10" s="15"/>
-      <c r="EV10" s="15"/>
-      <c r="EW10" s="15"/>
-      <c r="EX10" s="15"/>
-      <c r="EY10" s="15"/>
-      <c r="EZ10" s="15"/>
-      <c r="FA10" s="15"/>
-      <c r="FB10" s="15"/>
-      <c r="FC10" s="15"/>
-      <c r="FD10" s="15"/>
-      <c r="FE10" s="15"/>
-      <c r="FF10" s="15"/>
-      <c r="FG10" s="15"/>
-      <c r="FH10" s="15"/>
-      <c r="FI10" s="15"/>
-      <c r="FJ10" s="15"/>
-      <c r="FK10" s="15"/>
-      <c r="FL10" s="15"/>
-      <c r="FM10" s="15"/>
-      <c r="FN10" s="15"/>
-      <c r="FO10" s="15"/>
-      <c r="FP10" s="15"/>
-      <c r="FQ10" s="15"/>
-      <c r="FR10" s="15"/>
-      <c r="FS10" s="15"/>
-      <c r="FT10" s="15"/>
-      <c r="FU10" s="15"/>
-      <c r="FV10" s="15"/>
-      <c r="FW10" s="15"/>
-      <c r="FX10" s="15"/>
-      <c r="FY10" s="15"/>
-      <c r="FZ10" s="15"/>
-      <c r="GA10" s="15"/>
-      <c r="GB10" s="15"/>
-      <c r="GC10" s="15"/>
-      <c r="GD10" s="15"/>
-      <c r="GE10" s="15"/>
-      <c r="GF10" s="15"/>
-      <c r="GG10" s="15"/>
-      <c r="GH10" s="15"/>
-      <c r="GI10" s="15"/>
-      <c r="GJ10" s="15"/>
-      <c r="GK10" s="15"/>
-      <c r="GL10" s="15"/>
-      <c r="GM10" s="15"/>
-      <c r="GN10" s="15"/>
-      <c r="GO10" s="15"/>
-      <c r="GP10" s="15"/>
-      <c r="GQ10" s="15"/>
-      <c r="GR10" s="15"/>
-      <c r="GS10" s="15"/>
-      <c r="GT10" s="15"/>
-      <c r="GU10" s="15"/>
-      <c r="GV10" s="15"/>
-      <c r="GW10" s="15"/>
-      <c r="GX10" s="15"/>
-      <c r="GY10" s="15"/>
-      <c r="GZ10" s="15"/>
-      <c r="HA10" s="15"/>
-      <c r="HB10" s="15"/>
-      <c r="HC10" s="15"/>
-      <c r="HD10" s="15"/>
-      <c r="HE10" s="15"/>
-      <c r="HF10" s="15"/>
-      <c r="HG10" s="15"/>
-      <c r="HH10" s="15"/>
-      <c r="HI10" s="15"/>
-      <c r="HJ10" s="15"/>
-      <c r="HK10" s="15"/>
-      <c r="HL10" s="15"/>
-      <c r="HM10" s="15"/>
-      <c r="HN10" s="15"/>
-      <c r="HO10" s="15"/>
-      <c r="HP10" s="15"/>
-      <c r="HQ10" s="15"/>
-      <c r="HR10" s="15"/>
-      <c r="HS10" s="15"/>
-      <c r="HT10" s="15"/>
-      <c r="HU10" s="15"/>
-      <c r="HV10" s="15"/>
-      <c r="HW10" s="15"/>
-      <c r="HX10" s="15"/>
-      <c r="HY10" s="15"/>
-      <c r="HZ10" s="15"/>
-      <c r="IA10" s="15"/>
-      <c r="IB10" s="15"/>
-      <c r="IC10" s="15"/>
-      <c r="ID10" s="15"/>
-      <c r="IE10" s="15"/>
-      <c r="IF10" s="15"/>
-      <c r="IG10" s="15"/>
-      <c r="IH10" s="15"/>
-      <c r="II10" s="15"/>
-      <c r="IJ10" s="15"/>
-      <c r="IK10" s="15"/>
-      <c r="IL10" s="15"/>
-      <c r="IM10" s="15"/>
-      <c r="IN10" s="15"/>
-      <c r="IO10" s="15"/>
-      <c r="IP10" s="15"/>
-      <c r="IQ10" s="15"/>
-      <c r="IR10" s="15"/>
-      <c r="IS10" s="15"/>
-      <c r="IT10" s="15"/>
-      <c r="IU10" s="15"/>
-      <c r="IV10" s="15"/>
-      <c r="IW10" s="15"/>
-      <c r="IX10" s="15"/>
-      <c r="IY10" s="15"/>
-      <c r="IZ10" s="15"/>
-      <c r="JA10" s="15"/>
-      <c r="JB10" s="15"/>
-      <c r="JC10" s="15"/>
-      <c r="JD10" s="15"/>
-      <c r="JE10" s="15"/>
-      <c r="JF10" s="15"/>
-      <c r="JG10" s="15"/>
-      <c r="JH10" s="15"/>
-      <c r="JI10" s="15"/>
-      <c r="JJ10" s="15"/>
-      <c r="JK10" s="15"/>
-      <c r="JL10" s="15"/>
-      <c r="JM10" s="15"/>
-      <c r="JN10" s="15"/>
-      <c r="JO10" s="15"/>
-      <c r="JP10" s="15"/>
-      <c r="JQ10" s="15"/>
-      <c r="JR10" s="15"/>
-      <c r="JS10" s="15"/>
-      <c r="JT10" s="15"/>
-      <c r="JU10" s="15"/>
-      <c r="JV10" s="15"/>
-      <c r="JW10" s="15"/>
-      <c r="JX10" s="15"/>
-      <c r="JY10" s="15"/>
-      <c r="JZ10" s="15"/>
-      <c r="KA10" s="15"/>
-      <c r="KB10" s="15"/>
-      <c r="KC10" s="15"/>
-      <c r="KD10" s="15"/>
-      <c r="KE10" s="15"/>
-      <c r="KF10" s="15"/>
-      <c r="KG10" s="15"/>
-      <c r="KH10" s="15"/>
-      <c r="KI10" s="15"/>
-      <c r="KJ10" s="15"/>
-      <c r="KK10" s="15"/>
-      <c r="KL10" s="15"/>
-      <c r="KM10" s="15"/>
-      <c r="KN10" s="15"/>
-      <c r="KO10" s="15"/>
-      <c r="KP10" s="15"/>
-      <c r="KQ10" s="15"/>
-      <c r="KR10" s="15"/>
-      <c r="KS10" s="15"/>
-      <c r="KT10" s="15"/>
-      <c r="KU10" s="15"/>
-      <c r="KV10" s="15"/>
-      <c r="KW10" s="15"/>
-      <c r="KX10" s="15"/>
-      <c r="KY10" s="15"/>
-      <c r="KZ10" s="15"/>
-      <c r="LA10" s="15"/>
-      <c r="LB10" s="15"/>
-      <c r="LC10" s="15"/>
-      <c r="LD10" s="15"/>
-      <c r="LE10" s="15"/>
-      <c r="LF10" s="15"/>
-      <c r="LG10" s="15"/>
-      <c r="LH10" s="15"/>
-      <c r="LI10" s="15"/>
-      <c r="LJ10" s="15"/>
-      <c r="LK10" s="15"/>
-      <c r="LL10" s="15"/>
-      <c r="LM10" s="15"/>
-      <c r="LN10" s="15"/>
-      <c r="LO10" s="15"/>
-      <c r="LP10" s="15"/>
-      <c r="LQ10" s="15"/>
-      <c r="LR10" s="15"/>
-      <c r="LS10" s="15"/>
-      <c r="LT10" s="15"/>
-      <c r="LU10" s="15"/>
-      <c r="LV10" s="15"/>
-      <c r="LW10" s="15"/>
-      <c r="LX10" s="15"/>
-      <c r="LY10" s="15"/>
-      <c r="LZ10" s="15"/>
-      <c r="MA10" s="15"/>
-      <c r="MB10" s="15"/>
-      <c r="MC10" s="15"/>
-      <c r="MD10" s="15"/>
-      <c r="ME10" s="15"/>
-      <c r="MF10" s="15"/>
-      <c r="MG10" s="15"/>
-      <c r="MH10" s="15"/>
-      <c r="MI10" s="15"/>
-      <c r="MJ10" s="15"/>
-      <c r="MK10" s="15"/>
-      <c r="ML10" s="15"/>
-      <c r="MM10" s="15"/>
-      <c r="MN10" s="15"/>
-      <c r="MO10" s="15"/>
-      <c r="MP10" s="15"/>
-      <c r="MQ10" s="15"/>
-      <c r="MR10" s="15"/>
-      <c r="MS10" s="15"/>
-      <c r="MT10" s="15"/>
-      <c r="MU10" s="15"/>
-      <c r="MV10" s="15"/>
-      <c r="MW10" s="15"/>
-      <c r="MX10" s="15"/>
-      <c r="MY10" s="15"/>
-      <c r="MZ10" s="15"/>
-      <c r="NA10" s="15"/>
-      <c r="NB10" s="15"/>
-      <c r="NC10" s="15"/>
-      <c r="ND10" s="15"/>
-      <c r="NE10" s="15"/>
-      <c r="NF10" s="15"/>
-      <c r="NG10" s="15"/>
-      <c r="NH10" s="15"/>
-      <c r="NI10" s="15"/>
-      <c r="NJ10" s="15"/>
-      <c r="NK10" s="15"/>
-      <c r="NL10" s="15"/>
-      <c r="NM10" s="15"/>
-      <c r="NN10" s="15"/>
-      <c r="NO10" s="15"/>
-      <c r="NP10" s="15"/>
-      <c r="NQ10" s="15"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
+      <c r="BL10" s="22"/>
+      <c r="BM10" s="22"/>
+      <c r="BN10" s="22"/>
+      <c r="BO10" s="22"/>
+      <c r="BP10" s="22"/>
+      <c r="BQ10" s="22"/>
+      <c r="BR10" s="22"/>
+      <c r="BS10" s="22"/>
+      <c r="BT10" s="22"/>
+      <c r="BU10" s="22"/>
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
+      <c r="BX10" s="22"/>
+      <c r="BY10" s="22"/>
+      <c r="BZ10" s="22"/>
+      <c r="CA10" s="22"/>
+      <c r="CB10" s="22"/>
+      <c r="CC10" s="22"/>
+      <c r="CD10" s="22"/>
+      <c r="CE10" s="22"/>
+      <c r="CF10" s="22"/>
+      <c r="CG10" s="22"/>
+      <c r="CH10" s="22"/>
+      <c r="CI10" s="22"/>
+      <c r="CJ10" s="22"/>
+      <c r="CK10" s="22"/>
+      <c r="CL10" s="22"/>
+      <c r="CM10" s="22"/>
+      <c r="CN10" s="22"/>
+      <c r="CO10" s="22"/>
+      <c r="CP10" s="22"/>
+      <c r="CQ10" s="22"/>
+      <c r="CR10" s="22"/>
+      <c r="CS10" s="22"/>
+      <c r="CT10" s="22"/>
+      <c r="CU10" s="22"/>
+      <c r="CV10" s="22"/>
+      <c r="CW10" s="22"/>
+      <c r="CX10" s="22"/>
+      <c r="CY10" s="22"/>
+      <c r="CZ10" s="22"/>
+      <c r="DA10" s="22"/>
+      <c r="DB10" s="22"/>
+      <c r="DC10" s="22"/>
+      <c r="DD10" s="22"/>
+      <c r="DE10" s="22"/>
+      <c r="DF10" s="22"/>
+      <c r="DG10" s="22"/>
+      <c r="DH10" s="22"/>
+      <c r="DI10" s="22"/>
+      <c r="DJ10" s="22"/>
+      <c r="DK10" s="22"/>
+      <c r="DL10" s="22"/>
+      <c r="DM10" s="22"/>
+      <c r="DN10" s="22"/>
+      <c r="DO10" s="22"/>
+      <c r="DP10" s="22"/>
+      <c r="DQ10" s="22"/>
+      <c r="DR10" s="22"/>
+      <c r="DS10" s="22"/>
+      <c r="DT10" s="22"/>
+      <c r="DU10" s="22"/>
+      <c r="DV10" s="22"/>
+      <c r="DW10" s="22"/>
+      <c r="DX10" s="22"/>
+      <c r="DY10" s="22"/>
+      <c r="DZ10" s="22"/>
+      <c r="EA10" s="22"/>
+      <c r="EB10" s="22"/>
+      <c r="EC10" s="22"/>
+      <c r="ED10" s="22"/>
+      <c r="EE10" s="22"/>
+      <c r="EF10" s="22"/>
+      <c r="EG10" s="22"/>
+      <c r="EH10" s="22"/>
+      <c r="EI10" s="22"/>
+      <c r="EJ10" s="22"/>
+      <c r="EK10" s="22"/>
+      <c r="EL10" s="22"/>
+      <c r="EM10" s="22"/>
+      <c r="EN10" s="22"/>
+      <c r="EO10" s="22"/>
+      <c r="EP10" s="22"/>
+      <c r="EQ10" s="22"/>
+      <c r="ER10" s="22"/>
+      <c r="ES10" s="22"/>
+      <c r="ET10" s="22"/>
+      <c r="EU10" s="22"/>
+      <c r="EV10" s="22"/>
+      <c r="EW10" s="22"/>
+      <c r="EX10" s="22"/>
+      <c r="EY10" s="22"/>
+      <c r="EZ10" s="22"/>
+      <c r="FA10" s="22"/>
+      <c r="FB10" s="22"/>
+      <c r="FC10" s="22"/>
+      <c r="FD10" s="22"/>
+      <c r="FE10" s="22"/>
+      <c r="FF10" s="22"/>
+      <c r="FG10" s="22"/>
+      <c r="FH10" s="22"/>
+      <c r="FI10" s="22"/>
+      <c r="FJ10" s="22"/>
+      <c r="FK10" s="22"/>
+      <c r="FL10" s="22"/>
+      <c r="FM10" s="22"/>
+      <c r="FN10" s="22"/>
+      <c r="FO10" s="22"/>
+      <c r="FP10" s="22"/>
+      <c r="FQ10" s="22"/>
+      <c r="FR10" s="22"/>
+      <c r="FS10" s="22"/>
+      <c r="FT10" s="22"/>
+      <c r="FU10" s="22"/>
+      <c r="FV10" s="22"/>
+      <c r="FW10" s="22"/>
+      <c r="FX10" s="22"/>
+      <c r="FY10" s="22"/>
+      <c r="FZ10" s="22"/>
+      <c r="GA10" s="22"/>
+      <c r="GB10" s="22"/>
+      <c r="GC10" s="22"/>
+      <c r="GD10" s="22"/>
+      <c r="GE10" s="22"/>
+      <c r="GF10" s="22"/>
+      <c r="GG10" s="22"/>
+      <c r="GH10" s="22"/>
+      <c r="GI10" s="22"/>
+      <c r="GJ10" s="22"/>
+      <c r="GK10" s="22"/>
+      <c r="GL10" s="22"/>
+      <c r="GM10" s="22"/>
+      <c r="GN10" s="22"/>
+      <c r="GO10" s="22"/>
+      <c r="GP10" s="22"/>
+      <c r="GQ10" s="22"/>
+      <c r="GR10" s="22"/>
+      <c r="GS10" s="22"/>
+      <c r="GT10" s="22"/>
+      <c r="GU10" s="22"/>
+      <c r="GV10" s="22"/>
+      <c r="GW10" s="22"/>
+      <c r="GX10" s="22"/>
+      <c r="GY10" s="22"/>
+      <c r="GZ10" s="22"/>
+      <c r="HA10" s="22"/>
+      <c r="HB10" s="22"/>
+      <c r="HC10" s="22"/>
+      <c r="HD10" s="22"/>
+      <c r="HE10" s="22"/>
+      <c r="HF10" s="22"/>
+      <c r="HG10" s="22"/>
+      <c r="HH10" s="22"/>
+      <c r="HI10" s="22"/>
+      <c r="HJ10" s="22"/>
+      <c r="HK10" s="22"/>
+      <c r="HL10" s="22"/>
+      <c r="HM10" s="22"/>
+      <c r="HN10" s="22"/>
+      <c r="HO10" s="22"/>
+      <c r="HP10" s="22"/>
+      <c r="HQ10" s="22"/>
+      <c r="HR10" s="22"/>
+      <c r="HS10" s="22"/>
+      <c r="HT10" s="22"/>
+      <c r="HU10" s="22"/>
+      <c r="HV10" s="22"/>
+      <c r="HW10" s="22"/>
+      <c r="HX10" s="22"/>
+      <c r="HY10" s="22"/>
+      <c r="HZ10" s="22"/>
+      <c r="IA10" s="22"/>
+      <c r="IB10" s="22"/>
+      <c r="IC10" s="22"/>
+      <c r="ID10" s="22"/>
+      <c r="IE10" s="22"/>
+      <c r="IF10" s="22"/>
+      <c r="IG10" s="22"/>
+      <c r="IH10" s="22"/>
+      <c r="II10" s="22"/>
+      <c r="IJ10" s="22"/>
+      <c r="IK10" s="22"/>
+      <c r="IL10" s="22"/>
+      <c r="IM10" s="22"/>
+      <c r="IN10" s="22"/>
+      <c r="IO10" s="22"/>
+      <c r="IP10" s="22"/>
+      <c r="IQ10" s="22"/>
+      <c r="IR10" s="22"/>
+      <c r="IS10" s="22"/>
+      <c r="IT10" s="22"/>
+      <c r="IU10" s="22"/>
+      <c r="IV10" s="22"/>
+      <c r="IW10" s="22"/>
+      <c r="IX10" s="22"/>
+      <c r="IY10" s="22"/>
+      <c r="IZ10" s="22"/>
+      <c r="JA10" s="22"/>
+      <c r="JB10" s="22"/>
+      <c r="JC10" s="22"/>
+      <c r="JD10" s="22"/>
+      <c r="JE10" s="22"/>
+      <c r="JF10" s="22"/>
+      <c r="JG10" s="22"/>
+      <c r="JH10" s="22"/>
+      <c r="JI10" s="22"/>
+      <c r="JJ10" s="22"/>
+      <c r="JK10" s="22"/>
+      <c r="JL10" s="22"/>
+      <c r="JM10" s="22"/>
+      <c r="JN10" s="22"/>
+      <c r="JO10" s="22"/>
+      <c r="JP10" s="22"/>
+      <c r="JQ10" s="22"/>
+      <c r="JR10" s="22"/>
+      <c r="JS10" s="22"/>
+      <c r="JT10" s="22"/>
+      <c r="JU10" s="22"/>
+      <c r="JV10" s="22"/>
+      <c r="JW10" s="22"/>
+      <c r="JX10" s="22"/>
+      <c r="JY10" s="22"/>
+      <c r="JZ10" s="22"/>
+      <c r="KA10" s="22"/>
+      <c r="KB10" s="22"/>
+      <c r="KC10" s="22"/>
+      <c r="KD10" s="22"/>
+      <c r="KE10" s="22"/>
+      <c r="KF10" s="22"/>
+      <c r="KG10" s="22"/>
+      <c r="KH10" s="22"/>
+      <c r="KI10" s="22"/>
+      <c r="KJ10" s="22"/>
+      <c r="KK10" s="22"/>
+      <c r="KL10" s="22"/>
+      <c r="KM10" s="22"/>
+      <c r="KN10" s="22"/>
+      <c r="KO10" s="22"/>
+      <c r="KP10" s="22"/>
+      <c r="KQ10" s="22"/>
+      <c r="KR10" s="22"/>
+      <c r="KS10" s="22"/>
+      <c r="KT10" s="22"/>
+      <c r="KU10" s="22"/>
+      <c r="KV10" s="22"/>
+      <c r="KW10" s="22"/>
+      <c r="KX10" s="22"/>
+      <c r="KY10" s="22"/>
+      <c r="KZ10" s="22"/>
+      <c r="LA10" s="22"/>
+      <c r="LB10" s="22"/>
+      <c r="LC10" s="22"/>
+      <c r="LD10" s="22"/>
+      <c r="LE10" s="22"/>
+      <c r="LF10" s="22"/>
+      <c r="LG10" s="22"/>
+      <c r="LH10" s="22"/>
+      <c r="LI10" s="22"/>
+      <c r="LJ10" s="22"/>
+      <c r="LK10" s="22"/>
+      <c r="LL10" s="22"/>
+      <c r="LM10" s="22"/>
+      <c r="LN10" s="22"/>
+      <c r="LO10" s="22"/>
+      <c r="LP10" s="22"/>
+      <c r="LQ10" s="22"/>
+      <c r="LR10" s="22"/>
+      <c r="LS10" s="22"/>
+      <c r="LT10" s="22"/>
+      <c r="LU10" s="22"/>
+      <c r="LV10" s="22"/>
+      <c r="LW10" s="22"/>
+      <c r="LX10" s="22"/>
+      <c r="LY10" s="22"/>
+      <c r="LZ10" s="22"/>
+      <c r="MA10" s="22"/>
+      <c r="MB10" s="22"/>
+      <c r="MC10" s="22"/>
+      <c r="MD10" s="22"/>
+      <c r="ME10" s="22"/>
+      <c r="MF10" s="22"/>
+      <c r="MG10" s="22"/>
+      <c r="MH10" s="22"/>
+      <c r="MI10" s="22"/>
+      <c r="MJ10" s="22"/>
+      <c r="MK10" s="22"/>
+      <c r="ML10" s="22"/>
+      <c r="MM10" s="22"/>
+      <c r="MN10" s="22"/>
+      <c r="MO10" s="22"/>
+      <c r="MP10" s="22"/>
+      <c r="MQ10" s="22"/>
+      <c r="MR10" s="22"/>
+      <c r="MS10" s="22"/>
+      <c r="MT10" s="22"/>
+      <c r="MU10" s="22"/>
+      <c r="MV10" s="22"/>
+      <c r="MW10" s="22"/>
+      <c r="MX10" s="22"/>
+      <c r="MY10" s="22"/>
+      <c r="MZ10" s="22"/>
+      <c r="NA10" s="22"/>
+      <c r="NB10" s="22"/>
+      <c r="NC10" s="22"/>
+      <c r="ND10" s="22"/>
+      <c r="NE10" s="22"/>
+      <c r="NF10" s="22"/>
+      <c r="NG10" s="22"/>
+      <c r="NH10" s="22"/>
+      <c r="NI10" s="22"/>
+      <c r="NJ10" s="22"/>
+      <c r="NK10" s="22"/>
+      <c r="NL10" s="22"/>
+      <c r="NM10" s="22"/>
+      <c r="NN10" s="22"/>
+      <c r="NO10" s="22"/>
+      <c r="NP10" s="22"/>
+      <c r="NQ10" s="22"/>
     </row>
     <row r="11" spans="1:381" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11836,8 +11852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M376" sqref="M376"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17164,6 +17180,4601 @@
       </c>
       <c r="D380" s="11">
         <v>2.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3874AE89-9F58-4B0E-905F-0085F7C8DA8D}">
+  <dimension ref="A1:D164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D7" s="8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="B24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="D28" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B34" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="D35" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="D36" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B37" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="D37" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B39" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B40" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="D40" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D41" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D42" s="8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D43" s="8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="B45" s="3">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D46" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="D48" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>7</v>
+      </c>
+      <c r="D49" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B50" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D52" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D55" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D57" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D58" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="D59" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D60" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B61" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B62" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D62" s="8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B63" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D63" s="8">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B64" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D64" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B65" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D65" s="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C66" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D66" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D67" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="B68" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D68" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D69" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D70" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C71" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D71" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="C72" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D72" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D73" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D74" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C75" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D75" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="D76" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D77" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D78" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C79" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D79" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C80" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="D80" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D81" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D82" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D83" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D84" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C85" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D85" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D86" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D87" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D88" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D89" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B90" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C90" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D90" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>5</v>
+      </c>
+      <c r="D91" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B92" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B93" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C93" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D93" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B94" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D94" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B95" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D95" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D96" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B97" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D97" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="B98" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D98" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D99" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="B100" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D100" s="8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D101" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B102" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D102" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B103" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4</v>
+      </c>
+      <c r="D103" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C104" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D104" s="8">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D105" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D106" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="B107" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C107" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D107" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C108" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D108" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B109" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D109" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="B110" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C110" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D110" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B111" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C111" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D111" s="8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B112" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C112" s="3">
+        <v>4</v>
+      </c>
+      <c r="D112" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B113" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D113" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D114" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B115" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D115" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B116" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D116" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B117" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D117" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B118" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D118" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="B119" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D119" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B120" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D120" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B121" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D121" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="B122" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D122" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="B123" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D123" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B124" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D124" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D125" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C126" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B127" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C127" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D127" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B128" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C128" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D128" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C129" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D129" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5</v>
+      </c>
+      <c r="C130" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D130" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B131" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C131" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D131" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B132" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C132" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D132" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C133" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D133" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C134" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D134" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5</v>
+      </c>
+      <c r="C135" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D135" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B136" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C136" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D136" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B137" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C137" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D137" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="B138" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C138" s="3">
+        <v>4</v>
+      </c>
+      <c r="D138" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B139" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C139" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D139" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B140" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C140" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D140" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B141" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C141" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D141" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C142" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="D142" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B143" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="D143" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="B144" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D144" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B145" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C145" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D145" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="B146" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D146" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B147" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C147" s="3">
+        <v>4</v>
+      </c>
+      <c r="D147" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B148" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C148" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D148" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="B149" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D149" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="B150" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D150" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B151" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C151" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D151" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B152" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C152" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D152" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B153" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C153" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D153" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B154" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C154" s="3">
+        <v>4</v>
+      </c>
+      <c r="D154" s="8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="8"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="8"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="8"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="8"/>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="9"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF4EC8E-7E4B-4CCE-B8A4-1C7A1A3463FA}">
+  <dimension ref="A1:H164"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D7" s="8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="B24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="D28" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B34" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="D35" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="D36" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B37" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="D37" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B39" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B40" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="D40" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D41" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D42" s="8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D43" s="8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="B45" s="3">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D46" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="D48" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>7</v>
+      </c>
+      <c r="D49" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B50" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D52" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D55" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D57" s="8">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D58" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="D59" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D60" s="8">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B61" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B62" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D62" s="8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B63" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D63" s="8">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B64" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="D64" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B65" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D65" s="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C66" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D66" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D67" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="B68" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D68" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D69" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D70" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="C71" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D71" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="C72" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D72" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D73" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D74" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C75" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D75" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="D76" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D77" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D78" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C79" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D79" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C80" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="D80" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D81" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D82" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D83" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D84" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C85" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D85" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D86" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="D87" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D88" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D89" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B90" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C90" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D90" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>5</v>
+      </c>
+      <c r="D91" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B92" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B93" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C93" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D93" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B94" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D94" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B95" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D95" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D96" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B97" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D97" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="B98" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D98" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D99" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="B100" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D100" s="8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D101" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B102" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D102" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B103" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4</v>
+      </c>
+      <c r="D103" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C104" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D104" s="8">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D105" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D106" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="B107" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C107" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D107" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C108" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D108" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B109" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D109" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="B110" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C110" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D110" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B111" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C111" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D111" s="8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B112" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C112" s="3">
+        <v>4</v>
+      </c>
+      <c r="D112" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B113" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D113" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D114" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B115" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D115" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B116" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D116" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B117" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D117" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B118" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D118" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="B119" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C119" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D119" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B120" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D120" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B121" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D121" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="B122" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D122" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="B123" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D123" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B124" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D124" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D125" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C126" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B127" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C127" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D127" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B128" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C128" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D128" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C129" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D129" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5</v>
+      </c>
+      <c r="C130" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D130" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B131" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C131" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D131" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B132" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C132" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D132" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C133" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D133" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C134" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D134" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5</v>
+      </c>
+      <c r="C135" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D135" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B136" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C136" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D136" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B137" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C137" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D137" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="B138" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C138" s="3">
+        <v>4</v>
+      </c>
+      <c r="D138" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B139" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C139" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D139" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B140" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C140" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D140" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B141" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C141" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D141" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C142" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="D142" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B143" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="D143" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="B144" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D144" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B145" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C145" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D145" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="B146" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D146" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B147" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C147" s="3">
+        <v>4</v>
+      </c>
+      <c r="D147" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B148" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C148" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D148" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="B149" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D149" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="B150" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D150" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B151" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C151" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D151" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B152" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C152" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="D152" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B153" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C153" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D153" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B154" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="C154" s="3">
+        <v>4</v>
+      </c>
+      <c r="D154" s="8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="B155" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="C155" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="D155" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15">
+        <v>1</v>
+      </c>
+      <c r="H155" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="B156" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C156" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D156" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="B157" s="13">
+        <v>4</v>
+      </c>
+      <c r="C157" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D157" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="B158" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="C158" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="D158" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="B159" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="C159" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="D159" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="B160" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="C160" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="D160" s="14">
+        <v>3</v>
+      </c>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="B161" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="C161" s="13">
+        <v>4</v>
+      </c>
+      <c r="D161" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="B162" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="C162" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="D162" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="B163" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="C163" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="D163" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="B164" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C164" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="D164" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Károlyi Krisztián\Desktop\SAPI_3-1\AllamVizsga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071B670C-865B-4A4B-A31E-A040A80CD1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD8712-219A-4ABC-BB0F-7D187B0C26D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forras" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <sheet name="valami" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="895">
   <si>
     <t>Rezultatele cautarii - Rata somajului inregistrat la sfarsitul lunii, pe sexe, macroregiuni, regiuni de dezvoltare si judete</t>
   </si>
@@ -2781,12 +2792,24 @@
   <si>
     <t>Maros</t>
   </si>
+  <si>
+    <t>becslések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maros AR(2): </t>
+  </si>
+  <si>
+    <t>Hargita ARMA (1, 2)</t>
+  </si>
+  <si>
+    <t>Kovászna ARMA(1, 1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2938,8 +2961,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3131,8 +3161,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -3352,6 +3400,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3397,7 +3530,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3433,6 +3566,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3489,6 +3638,2528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A székelyföldi megyék munkanélküliségi rátái 2022 október - 2023 július</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13550678040244971"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kovászna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>valami!$A$155:$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2022 október</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022 november</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022 december</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 január</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023 február</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023 március</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023 április</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023 május</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023 június</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023 július</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>valami!$B$155:$B$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAC7-4AF3-B5B7-EC45470B28E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Maros</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>valami!$A$155:$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2022 október</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022 november</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022 december</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 január</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023 február</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023 március</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023 április</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023 május</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023 június</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023 július</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>valami!$D$155:$D$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAC7-4AF3-B5B7-EC45470B28E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Hargita</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>valami!$A$155:$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2022 október</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022 november</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022 december</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 január</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023 február</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023 március</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023 április</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023 május</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023 június</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023 július</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>valami!$C$155:$C$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAC7-4AF3-B5B7-EC45470B28E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="808799151"/>
+        <c:axId val="867123167"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="808799151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="810" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867123167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="867123167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808799151"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A székelyföldi megyék becsült munkanélküliségi rátái 2022 október - 2023 július</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7194108127171515E-2"/>
+          <c:y val="2.4403499956275467E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>valami!$D$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kovászna ARMA(1, 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>valami!$A$168:$A$177</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2022 október</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022 november</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022 december</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 január</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023 február</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023 március</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023 április</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023 május</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023 június</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023 július</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>valami!$D$168:$D$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2780435873660396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2990760351895103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3199689067397804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.34072312827786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3613396199178496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3818192956677704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4021630634700601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4223718252418402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4424464769149097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4623879084754403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C4D-4FAA-9D03-E446F0CDD307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>valami!$C$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hargita ARMA (1, 2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>valami!$A$168:$A$177</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2022 október</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022 november</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022 december</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 január</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023 február</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023 március</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023 április</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023 május</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023 június</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023 július</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>valami!$C$168:$C$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.0809420171305097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1454033322273203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1991751824388404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2513867746127101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3020833816032997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.35130896261603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3991062013245399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4455165428818697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4905802298576596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5343363371326602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C4D-4FAA-9D03-E446F0CDD307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>valami!$B$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maros AR(2): </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>valami!$A$168:$A$177</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2022 október</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022 november</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022 december</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 január</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023 február</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023 március</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023 április</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023 május</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023 június</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023 július</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>valami!$B$168:$B$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.9427568816002099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9706635868001099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9945901591772901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0173251130540799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.03958508676532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0615555348993801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0832857150449202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1047899505426999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1260735913493698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1471396697889502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C4D-4FAA-9D03-E446F0CDD307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497243648"/>
+        <c:axId val="492640672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497243648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492640672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492640672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497243648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481365</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>26211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365408</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>6334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52626E5D-E9C5-97FA-1E1B-3260DB77542E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509868</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>34735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4614349C-975E-FF05-D070-440691DFB53A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17191,7 +19862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3874AE89-9F58-4B0E-905F-0085F7C8DA8D}">
   <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
@@ -19425,16 +22096,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF4EC8E-7E4B-4CCE-B8A4-1C7A1A3463FA}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D164" sqref="A155:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21777,8 +24448,167 @@
         <v>10</v>
       </c>
     </row>
+    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="23" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="24"/>
+      <c r="B167" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="28" t="s">
+        <v>877</v>
+      </c>
+      <c r="B168" s="29">
+        <v>2.9427568816002099</v>
+      </c>
+      <c r="C168" s="29">
+        <v>4.0809420171305097</v>
+      </c>
+      <c r="D168" s="30">
+        <v>4.2780435873660396</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="B169" s="29">
+        <v>2.9706635868001099</v>
+      </c>
+      <c r="C169" s="29">
+        <v>4.1454033322273203</v>
+      </c>
+      <c r="D169" s="30">
+        <v>4.2990760351895103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="29" t="s">
+        <v>879</v>
+      </c>
+      <c r="B170" s="29">
+        <v>2.9945901591772901</v>
+      </c>
+      <c r="C170" s="29">
+        <v>4.1991751824388404</v>
+      </c>
+      <c r="D170" s="30">
+        <v>4.3199689067397804</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="B171" s="29">
+        <v>3.0173251130540799</v>
+      </c>
+      <c r="C171" s="29">
+        <v>4.2513867746127101</v>
+      </c>
+      <c r="D171" s="30">
+        <v>4.34072312827786</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="B172" s="29">
+        <v>3.03958508676532</v>
+      </c>
+      <c r="C172" s="29">
+        <v>4.3020833816032997</v>
+      </c>
+      <c r="D172" s="30">
+        <v>4.3613396199178496</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="29" t="s">
+        <v>882</v>
+      </c>
+      <c r="B173" s="29">
+        <v>3.0615555348993801</v>
+      </c>
+      <c r="C173" s="29">
+        <v>4.35130896261603</v>
+      </c>
+      <c r="D173" s="30">
+        <v>4.3818192956677704</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="B174" s="29">
+        <v>3.0832857150449202</v>
+      </c>
+      <c r="C174" s="29">
+        <v>4.3991062013245399</v>
+      </c>
+      <c r="D174" s="30">
+        <v>4.4021630634700601</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="B175" s="29">
+        <v>3.1047899505426999</v>
+      </c>
+      <c r="C175" s="29">
+        <v>4.4455165428818697</v>
+      </c>
+      <c r="D175" s="30">
+        <v>4.4223718252418402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="29" t="s">
+        <v>885</v>
+      </c>
+      <c r="B176" s="29">
+        <v>3.1260735913493698</v>
+      </c>
+      <c r="C176" s="29">
+        <v>4.4905802298576596</v>
+      </c>
+      <c r="D176" s="30">
+        <v>4.4424464769149097</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="31" t="s">
+        <v>886</v>
+      </c>
+      <c r="B177" s="31">
+        <v>3.1471396697889502</v>
+      </c>
+      <c r="C177" s="31">
+        <v>4.5343363371326602</v>
+      </c>
+      <c r="D177" s="32">
+        <v>4.4623879084754403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
